--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\Downloads\Group_01_P03_Assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1287A65-3110-4BE7-A8E6-C9C0D9A29CD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92E6577-9942-482D-94AD-1A6BD6D493ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="206">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -690,6 +690,9 @@
   </si>
   <si>
     <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -877,12 +880,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="65" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2054,12 +2057,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2151,12 +2154,12 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:D4">
@@ -2181,17 +2184,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2224,7 +2227,9 @@
       <c r="D2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="22">
@@ -2284,7 +2289,9 @@
       <c r="D6" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
@@ -2531,14 +2538,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -2725,14 +2732,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="2"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="2"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -2833,20 +2840,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -2889,13 +2896,22 @@
         <v>193</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2">
         <v>360</v>
+      </c>
+      <c r="G2">
+        <v>70</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2" s="6">
+        <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2917,6 +2933,15 @@
       <c r="F3">
         <v>360</v>
       </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="I3" s="6">
+        <v>42805</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
@@ -2969,7 +2994,7 @@
         <v>193</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -3126,9 +3151,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,9 +3428,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3448,9 +3473,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3493,10 +3518,10 @@
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -3510,40 +3535,40 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:3" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:3" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:3" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -3554,7 +3579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>118</v>
       </c>
@@ -3565,7 +3590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
@@ -3576,18 +3601,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:3" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="24" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>121</v>
       </c>
@@ -3598,7 +3623,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -3609,7 +3634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -3620,7 +3645,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -3631,7 +3656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>125</v>
       </c>
@@ -3642,7 +3667,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3653,7 +3678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>127</v>
       </c>
@@ -3664,7 +3689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -3675,7 +3700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -3686,7 +3711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -3697,7 +3722,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -3708,7 +3733,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -3719,7 +3744,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -3730,29 +3755,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
+    <row r="22" spans="1:3" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+    <row r="23" spans="1:3" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3763,7 +3788,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3774,7 +3799,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>138</v>
       </c>
@@ -3785,7 +3810,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -3796,7 +3821,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -3807,7 +3832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -3818,7 +3843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -3829,7 +3854,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>143</v>
       </c>
@@ -3840,7 +3865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>144</v>
       </c>
@@ -3851,7 +3876,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -3862,7 +3887,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -3873,7 +3898,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -3884,29 +3909,29 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="24" t="s">
+    <row r="36" spans="1:3" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="24" t="s">
+    <row r="37" spans="1:3" s="23" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="C37" s="24" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>150</v>
       </c>
@@ -3917,7 +3942,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -3928,7 +3953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3939,7 +3964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -3950,7 +3975,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -3961,7 +3986,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>155</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF361F-9132-4D1F-9C1F-2BA082663387}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -30,628 +44,608 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
   <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KandasamyP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmitaRath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinak08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundararaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanirudh1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifying doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Kandasamy</t>
+  </si>
+  <si>
+    <t>Parthasarathy</t>
+  </si>
+  <si>
+    <t>kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t>KandasamyP</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t>SmitaRath</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pinak</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t>pinak08</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sundararaman</t>
+  </si>
+  <si>
+    <t>asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t>sanirudh1998</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t>Smita Rath</t>
+  </si>
+  <si>
+    <t>Pinak Pathak</t>
+  </si>
+  <si>
+    <t>Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -661,19 +655,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -682,7 +664,6 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -707,7 +688,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -715,137 +696,59 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -904,17 +807,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -922,12 +845,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -937,45 +857,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>06/06/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/06/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/07/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17/07/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31/07/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -998,14 +928,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9133-45AA-A6DF-C358209A19A8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1014,17 +954,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="42560449"/>
         <c:axId val="64373609"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="42560449"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1041,21 +982,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="64373609"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="64373609"/>
         <c:scaling>
@@ -1090,13 +1032,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="42560449"/>
@@ -1105,7 +1048,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1114,24 +1057,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1139,12 +1092,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1154,45 +1104,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>d/m</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/3</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16/3</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30/3</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/4</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/4</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1206,23 +1166,24 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9126-41C1-AE1B-5233DB5E3A79}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1231,17 +1192,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="44989955"/>
         <c:axId val="92401886"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="44989955"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="D/M" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1258,21 +1220,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="92401886"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="92401886"/>
         <c:scaling>
@@ -1307,13 +1270,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="44989955"/>
@@ -1322,7 +1286,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1331,20 +1295,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1358,14 +1328,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3561120"/>
-        <a:ext cx="4932360" cy="2617200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1388,9 +1364,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1406,12 +1388,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1431,7 +1413,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1439,15 +1422,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1458,15 +1441,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1487,9 +1470,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1505,12 +1494,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1530,7 +1519,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1538,15 +1528,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1567,9 +1557,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1585,12 +1581,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1610,7 +1606,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1618,15 +1615,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1647,9 +1644,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>84240</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1665,12 +1668,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1690,7 +1693,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1698,15 +1702,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1717,15 +1721,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1746,9 +1750,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1764,12 +1774,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1789,7 +1799,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1797,15 +1808,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1826,9 +1837,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1844,12 +1861,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1869,7 +1886,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1877,15 +1895,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1897,7 +1915,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1911,14 +1929,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1835280" y="1456200"/>
-        <a:ext cx="6182640" cy="2616840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1931,182 +1955,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
-    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2122,8 +2430,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2137,8 +2445,8 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2152,8 +2460,8 @@
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2167,8 +2475,8 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2184,8 +2492,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2199,8 +2507,8 @@
       </c>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2214,8 +2522,8 @@
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2229,562 +2537,538 @@
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="11">
         <v>41065</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="12">
         <v>24</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="11">
         <v>41078</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="12">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="G16" s="8" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="8">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="11">
         <v>41092</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="12">
         <v>480</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="13">
         <v>135</v>
       </c>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="8">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="11">
         <v>41106</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>740</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="13">
         <v>160</v>
       </c>
-      <c r="G18" s="8" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="8">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="11">
         <v>41120</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="12">
         <v>1100</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="13">
         <v>145</v>
       </c>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="8">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="8" customWidth="1"/>
+    <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>42795</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>42809</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C2-C3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>480</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>4480</v>
       </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(E3-E2)/F3*60</f>
-        <v>6.42857142857143</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="G3" s="8">
+        <f>(E3-E2)/F3*60</f>
+        <v>6.4285714285714279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>42823</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -2803,7 +3087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -2816,23 +3100,23 @@
       <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2845,23 +3129,23 @@
       <c r="D3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>42805</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2874,14 +3158,14 @@
       <c r="D4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2894,14 +3178,14 @@
       <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2914,14 +3198,20 @@
       <c r="D6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>720</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2934,20 +3224,14 @@
       <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>720</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -2960,14 +3244,14 @@
       <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>580</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -2980,19 +3264,19 @@
       <c r="D9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>580</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>103</v>
       </c>
@@ -3000,7 +3284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>104</v>
       </c>
@@ -3008,7 +3292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>105</v>
       </c>
@@ -3016,7 +3300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>106</v>
       </c>
@@ -3024,76 +3308,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3112,11 +3388,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3125,18 +3401,18 @@
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3145,18 +3421,18 @@
       <c r="D3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3165,18 +3441,18 @@
       <c r="D4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>360</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3185,99 +3461,99 @@
       <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>580</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>360</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>360</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>360</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>103</v>
       </c>
@@ -3285,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>104</v>
       </c>
@@ -3293,7 +3569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>105</v>
       </c>
@@ -3301,7 +3577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>106</v>
       </c>
@@ -3309,75 +3585,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3397,43 +3665,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3453,47 +3713,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="14" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -3504,7 +3756,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
@@ -3515,7 +3767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
@@ -3526,40 +3778,40 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" s="20" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
@@ -3570,150 +3822,150 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" s="20" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -3724,7 +3976,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" s="20" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -3735,139 +3987,139 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>158</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="22" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" s="20" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
@@ -3878,7 +4130,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" s="20" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
@@ -3889,66 +4141,66 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>186</v>
       </c>
       <c r="C41" s="22" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>189</v>
       </c>
       <c r="C42" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="22" t="s">
@@ -3956,12 +4208,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EF361F-9132-4D1F-9C1F-2BA082663387}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED18F5F-49E1-43E6-89DE-EEFF9E70AE7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -702,9 +702,6 @@
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +738,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2258,29 +2258,29 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2311,7 +2311,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2328,7 +2328,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -2345,7 +2345,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2353,15 +2353,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2386,159 +2386,159 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2547,12 +2547,12 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2561,12 +2561,12 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2575,12 +2575,12 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2589,12 +2589,12 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2608,7 +2608,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2622,7 +2622,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2650,13 +2650,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -2736,182 +2736,182 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -2931,38 +2931,38 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>42795</v>
       </c>
       <c r="C2">
@@ -2984,7 +2984,7 @@
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>42809</v>
       </c>
       <c r="C3">
@@ -3000,7 +3000,7 @@
       <c r="F3">
         <v>4480</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(E3-E2)/F3*60</f>
         <v>6.4285714285714279</v>
       </c>
@@ -3009,7 +3009,7 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>42823</v>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>42851</v>
       </c>
     </row>
@@ -3041,63 +3041,63 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="14" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3112,21 +3112,21 @@
       <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E3">
@@ -3141,21 +3141,21 @@
       <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>42805</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E4">
@@ -3166,16 +3166,16 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E5">
@@ -3184,18 +3184,27 @@
       <c r="F5">
         <v>580</v>
       </c>
+      <c r="G5">
+        <v>40</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+      <c r="I5" s="6">
+        <v>42808</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3212,16 +3221,16 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E7">
@@ -3232,16 +3241,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E8">
@@ -3250,18 +3259,27 @@
       <c r="F8">
         <v>580</v>
       </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
+      <c r="H8">
+        <v>240</v>
+      </c>
+      <c r="I8" s="6">
+        <v>42808</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E9">
@@ -3272,56 +3290,56 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C20" t="s">
@@ -3334,7 +3352,7 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3352,39 +3370,39 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3395,10 +3413,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E2">
@@ -3415,10 +3433,10 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E3">
@@ -3435,10 +3453,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E4">
@@ -3455,10 +3473,10 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E5">
@@ -3478,7 +3496,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E6">
@@ -3498,7 +3516,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E7">
@@ -3518,7 +3536,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E8">
@@ -3538,7 +3556,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>102</v>
       </c>
       <c r="E9">
@@ -3549,70 +3567,70 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3630,37 +3648,37 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3678,37 +3696,37 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3722,488 +3740,488 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="13" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
       <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
       <c r="B18" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>148</v>
       </c>
       <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
       <c r="B21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>157</v>
       </c>
       <c r="B25" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>160</v>
       </c>
       <c r="B26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>166</v>
       </c>
       <c r="B28" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
       <c r="B30" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>177</v>
       </c>
       <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="20" t="s">
+    <row r="36" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
       <c r="B41" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>191</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED18F5F-49E1-43E6-89DE-EEFF9E70AE7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5505DF-1518-4C01-A9B6-062D3BFCA3E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>No major changes at end of sprint</t>
+  </si>
+  <si>
+    <t>Avoid redundancy</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>No last day development</t>
+  </si>
+  <si>
+    <t>Testing at end of sprint</t>
+  </si>
+  <si>
+    <t>Following documents and instructions</t>
   </si>
 </sst>
 </file>
@@ -2382,8 +2400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2443,7 +2461,9 @@
       <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -2458,7 +2478,9 @@
       <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -2473,7 +2495,9 @@
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -2505,7 +2529,9 @@
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -2520,7 +2546,9 @@
       <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -2535,7 +2563,9 @@
       <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -3038,17 +3068,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
     <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="3" max="3" width="30.6328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
@@ -3127,7 +3157,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3156,7 +3186,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -3176,7 +3206,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -3219,6 +3249,9 @@
       <c r="H6">
         <v>180</v>
       </c>
+      <c r="I6" s="6">
+        <v>42805</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -3231,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>80</v>
@@ -3251,7 +3284,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -3280,7 +3313,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -3351,9 +3384,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED18F5F-49E1-43E6-89DE-EEFF9E70AE7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
-    <sheet name="Stories" sheetId="9" r:id="rId9"/>
+    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -44,608 +30,628 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
   <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>KP</t>
-  </si>
-  <si>
-    <t>Kandasamy</t>
-  </si>
-  <si>
-    <t>Parthasarathy</t>
-  </si>
-  <si>
-    <t>kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t>KandasamyP</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Smita</t>
-  </si>
-  <si>
-    <t>Rath</t>
-  </si>
-  <si>
-    <t>srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t>SmitaRath</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Pinak</t>
-  </si>
-  <si>
-    <t>Pathak</t>
-  </si>
-  <si>
-    <t>ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t>pinak08</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>Sundararaman</t>
-  </si>
-  <si>
-    <t>asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t>sanirudh1998</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t>Smita Rath</t>
-  </si>
-  <si>
-    <t>Pinak Pathak</t>
-  </si>
-  <si>
-    <t>Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t>Clarifying doubts</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t xml:space="preserve">Initials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandasamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthasarathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KandasamyP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmitaRath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinak08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundararaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanirudh1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Repository:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less then 150 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct gender for role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage after 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique name and birth date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divorce before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order siblings by age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List living married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List living single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List multiple births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List orphans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent survivors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List upcoming birthdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smita Rath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinak Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep doing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarifying doubts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage before divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before death of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bigamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents not too old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No marriages to descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique families by spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique first names in families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include individual ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List large age differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include input line numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include partial dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d/m"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D/M"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="168" formatCode="@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -655,7 +661,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -664,6 +682,7 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -688,7 +707,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -696,59 +715,133 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -807,37 +900,17 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="1"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -845,9 +918,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
+                <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -857,55 +933,45 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
+                <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>06/06/2016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>19/06/2016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>03/07/2016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>17/07/2016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>31/07/2016</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -928,24 +994,14 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9133-45AA-A6DF-C358209A19A8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -954,18 +1010,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="42560449"/>
-        <c:axId val="64373609"/>
+        <c:axId val="15804471"/>
+        <c:axId val="67355274"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="42560449"/>
+      <c:catAx>
+        <c:axId val="15804471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -982,24 +1037,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64373609"/>
+        <c:crossAx val="67355274"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="64373609"/>
+        <c:axId val="67355274"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,23 +1086,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42560449"/>
+        <c:crossAx val="15804471"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1057,34 +1110,24 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="1"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
-  <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1092,9 +1135,12 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4a7ebb"/>
+            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
+                <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1104,55 +1150,45 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4A7EBB"/>
+                <a:srgbClr val="4a7ebb"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>d/m</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42795</c:v>
+                  <c:v>2/3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42809</c:v>
+                  <c:v>16/3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42823</c:v>
+                  <c:v>30/3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42837</c:v>
+                  <c:v>13/4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42851</c:v>
+                  <c:v>27/4</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1166,24 +1202,23 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9126-41C1-AE1B-5233DB5E3A79}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1192,18 +1227,17 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="44989955"/>
-        <c:axId val="92401886"/>
+        <c:axId val="48237147"/>
+        <c:axId val="50062483"/>
       </c:lineChart>
-      <c:dateAx>
-        <c:axId val="44989955"/>
+      <c:catAx>
+        <c:axId val="48237147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="d/m" sourceLinked="1"/>
+        <c:numFmt formatCode="D/M" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1220,24 +1254,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92401886"/>
+        <c:crossAx val="50062483"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="92401886"/>
+        <c:axId val="50062483"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,23 +1303,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44989955"/>
+        <c:crossAx val="48237147"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1295,53 +1327,41 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>71640</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>397440</xdr:colOff>
+      <xdr:colOff>397080</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="950760" y="3521160"/>
+        <a:ext cx="4929480" cy="2584440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1360,25 +1380,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>947880</xdr:colOff>
+      <xdr:colOff>947520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1345680" y="1482840"/>
-          <a:ext cx="1244880" cy="620640"/>
+          <a:off x="1348200" y="1465560"/>
+          <a:ext cx="1241280" cy="614880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1388,12 +1402,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1413,8 +1427,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1422,15 +1435,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1441,15 +1454,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1466,25 +1479,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>498960</xdr:colOff>
+      <xdr:colOff>498600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5596560" y="1457280"/>
-          <a:ext cx="1272600" cy="527760"/>
+          <a:off x="5596560" y="1440000"/>
+          <a:ext cx="1272240" cy="522000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1494,12 +1501,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1519,8 +1526,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1528,15 +1534,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1548,30 +1554,24 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1239480</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:colOff>59400</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2882160" y="1294200"/>
-          <a:ext cx="1098720" cy="783720"/>
+          <a:off x="2881440" y="1280880"/>
+          <a:ext cx="1099440" cy="774000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1581,12 +1581,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1606,8 +1606,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1615,15 +1614,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1640,25 +1639,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>507600</xdr:colOff>
+      <xdr:colOff>507240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4015080" y="1609560"/>
-          <a:ext cx="413640" cy="417600"/>
+          <a:off x="4015440" y="1592280"/>
+          <a:ext cx="413280" cy="411840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1668,12 +1661,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1693,8 +1686,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1702,15 +1694,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1721,15 +1713,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1746,25 +1738,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495320" y="1312200"/>
-          <a:ext cx="1080000" cy="731880"/>
+          <a:off x="4498560" y="1297080"/>
+          <a:ext cx="1076400" cy="723960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1774,12 +1760,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1799,8 +1785,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1808,15 +1793,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1833,25 +1818,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>626040</xdr:colOff>
+      <xdr:colOff>625680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5748840" y="5028120"/>
-          <a:ext cx="1247400" cy="620640"/>
+          <a:off x="5748840" y="4969080"/>
+          <a:ext cx="1247040" cy="614880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1861,12 +1840,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4A7EBB"/>
+            <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1886,8 +1865,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
-        <a:lstStyle/>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1895,15 +1873,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
+                <a:srgbClr val="ffffff"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
+          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1915,34 +1893,28 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>71280</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>397440</xdr:colOff>
+      <xdr:colOff>397080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1837800" y="1441080"/>
+        <a:ext cx="6182280" cy="2584080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1955,319 +1927,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
-    <col min="6" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2284,119 +1964,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
+    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
+    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
+    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
-    <col min="6" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,371 +2101,379 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="27" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="28" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
-    <col min="7" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2800,150 +2496,158 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="10" t="n">
         <v>41065</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="10" t="n">
         <v>41078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D16">
-        <f>C15-C16</f>
+      <c r="D16" s="0" t="n">
+        <f aca="false">C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="11" t="n">
         <v>250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="11" t="n">
         <v>120</v>
       </c>
-      <c r="G16" s="7">
-        <f>(E16-E15)/F16*60</f>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="n">
+        <f aca="false">(E16-E15)/F16*60</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="10" t="n">
         <v>41092</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D17">
-        <f>C16-C17</f>
+      <c r="D17" s="0" t="n">
+        <f aca="false">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="11" t="n">
         <v>480</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="12" t="n">
         <v>135</v>
       </c>
-      <c r="G17" s="7">
-        <f>(E17-E16)/F17*60</f>
-        <v>102.22222222222223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="n">
+        <f aca="false">(E17-E16)/F17*60</f>
+        <v>102.222222222222</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="10" t="n">
         <v>41106</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D18">
-        <f>C17-C18</f>
+      <c r="D18" s="0" t="n">
+        <f aca="false">C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="11" t="n">
         <v>740</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="12" t="n">
         <v>160</v>
       </c>
-      <c r="G18" s="7">
-        <f>(E18-E17)/F18*60</f>
+      <c r="G18" s="7" t="n">
+        <f aca="false">(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="10" t="n">
         <v>41120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D19">
-        <f>C18-C19</f>
+      <c r="D19" s="0" t="n">
+        <f aca="false">C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="12" t="n">
         <v>145</v>
       </c>
-      <c r="G19" s="7">
-        <f>(E19-E18)/F19*60</f>
-        <v>148.9655172413793</v>
+      <c r="G19" s="7" t="n">
+        <f aca="false">(E19-E18)/F19*60</f>
+        <v>148.965517241379</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
-    <col min="8" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="12.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2966,99 +2670,107 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>42795</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="6" t="n">
         <v>42809</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D3">
-        <f>C2-C3</f>
+      <c r="D3" s="0" t="n">
+        <f aca="false">C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>4480</v>
       </c>
-      <c r="G3" s="7">
-        <f>(E3-E2)/F3*60</f>
-        <v>6.4285714285714279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="G3" s="7" t="n">
+        <f aca="false">(E3-E2)/F3*60</f>
+        <v>6.42857142857143</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>42823</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="n">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6" customWidth="1"/>
-    <col min="10" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="24.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3087,297 +2799,332 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="6" t="n">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I3" s="6" t="n">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>42809</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3">
+      <c r="E5" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F3">
-        <v>360</v>
-      </c>
-      <c r="G3">
+      <c r="F5" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="H3">
+      <c r="F7" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>180</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>42806</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>580</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="H8" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I3" s="6">
-        <v>42805</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="I8" s="6" t="n">
+        <v>42808</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4">
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F9" s="0" t="n">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>580</v>
-      </c>
-      <c r="G5">
-        <v>40</v>
-      </c>
-      <c r="H5">
-        <v>180</v>
-      </c>
-      <c r="I5" s="6">
-        <v>42808</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>720</v>
-      </c>
-      <c r="G6">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7">
-        <v>80</v>
-      </c>
-      <c r="F7">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="G9" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>580</v>
-      </c>
-      <c r="G8">
-        <v>45</v>
-      </c>
-      <c r="H8">
-        <v>240</v>
-      </c>
-      <c r="I8" s="6">
-        <v>42808</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>42810</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="18"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="14" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3406,254 +3153,262 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="0" t="n">
         <v>580</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="0" t="n">
         <v>580</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="0" t="n">
         <v>360</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="18"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3683,25 +3438,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3731,28 +3494,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="13" customWidth="1"/>
-    <col min="4" max="1025" width="11" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="49.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3763,7 +3534,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3774,7 +3545,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3785,7 +3556,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
@@ -3796,40 +3567,40 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" s="19" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
@@ -3840,150 +3611,150 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3994,7 +3765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
@@ -4005,139 +3776,139 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>158</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
@@ -4148,7 +3919,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
@@ -4159,66 +3930,66 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>186</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>189</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -4226,7 +3997,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F87E2A-0313-4791-AB0B-5A0F50F85F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,630 +42,610 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="192">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KandasamyP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmitaRath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinak08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundararaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanirudh1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifying doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Kandasamy</t>
+  </si>
+  <si>
+    <t>Parthasarathy</t>
+  </si>
+  <si>
+    <t>kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t>KandasamyP</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t>SmitaRath</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pinak</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t>pinak08</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sundararaman</t>
+  </si>
+  <si>
+    <t>asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t>sanirudh1998</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t>Smita Rath</t>
+  </si>
+  <si>
+    <t>Pinak Pathak</t>
+  </si>
+  <si>
+    <t>Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -661,19 +655,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -682,7 +664,6 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -707,7 +688,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -715,133 +696,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -900,17 +806,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -918,12 +844,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -933,45 +856,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>06/06/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/06/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/07/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17/07/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31/07/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -994,14 +927,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE76-4334-B99A-599DD7104518}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1010,17 +953,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="15804471"/>
         <c:axId val="67355274"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="15804471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1037,21 +981,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67355274"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="67355274"/>
         <c:scaling>
@@ -1086,13 +1031,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15804471"/>
@@ -1101,7 +1047,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1110,24 +1056,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1135,12 +1091,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1150,45 +1103,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>d/m</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/3</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16/3</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30/3</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/4</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/4</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1202,23 +1165,24 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24F4-4A4D-8A67-0FFDB1587EF7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1227,17 +1191,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="48237147"/>
         <c:axId val="50062483"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="48237147"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="D/M" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1254,21 +1219,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50062483"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="50062483"/>
         <c:scaling>
@@ -1303,13 +1269,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48237147"/>
@@ -1318,7 +1285,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1327,20 +1294,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1354,14 +1327,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="950760" y="3521160"/>
-        <a:ext cx="4929480" cy="2584440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1384,9 +1363,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1402,12 +1387,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1427,7 +1412,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1435,15 +1421,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1454,15 +1440,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1483,9 +1469,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1501,12 +1493,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1526,7 +1518,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1534,15 +1527,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1563,9 +1556,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1581,12 +1580,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1606,7 +1605,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1614,15 +1614,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1643,9 +1643,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1661,12 +1667,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1686,7 +1692,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1694,15 +1701,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1713,15 +1720,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1742,9 +1749,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1760,12 +1773,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1785,7 +1798,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1793,15 +1807,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1822,9 +1836,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1840,12 +1860,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1865,7 +1885,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1873,15 +1894,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1893,7 +1914,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1907,14 +1928,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1837800" y="1441080"/>
-        <a:ext cx="6182280" cy="2584080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1927,182 +1954,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
-    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2118,8 +2429,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2131,10 +2442,12 @@
       <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="E3" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2146,10 +2459,12 @@
       <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="E4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2161,10 +2476,12 @@
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="E5" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2180,8 +2497,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2193,10 +2510,12 @@
       <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2208,10 +2527,12 @@
       <c r="D8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="E8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2223,564 +2544,542 @@
       <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
-      <c r="G16" s="7" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="7">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="7" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="7">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="7">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="7">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="12.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>42795</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>42809</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C2-C3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>4480</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <f aca="false">(E3-E2)/F3*60</f>
-        <v>6.42857142857143</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E3">
+        <v>430</v>
+      </c>
+      <c r="F3">
+        <v>1920</v>
+      </c>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
+        <v>13.4375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>42823</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="24.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -2799,7 +3098,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -2812,23 +3111,23 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2841,23 +3140,23 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2870,23 +3169,23 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>70</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2897,25 +3196,25 @@
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2928,20 +3227,23 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>720</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="6">
+        <v>42805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -2954,23 +3256,23 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>720</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>42806</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -2981,25 +3283,25 @@
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>580</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3012,28 +3314,28 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>580</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>42810</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
@@ -3041,7 +3343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>104</v>
       </c>
@@ -3049,7 +3351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>105</v>
       </c>
@@ -3057,7 +3359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>106</v>
       </c>
@@ -3065,76 +3367,68 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3153,11 +3447,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3166,18 +3460,18 @@
       <c r="D2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3186,18 +3480,18 @@
       <c r="D3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3206,18 +3500,18 @@
       <c r="D4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>360</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3226,99 +3520,99 @@
       <c r="D5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>580</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>360</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>360</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>360</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
@@ -3326,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>104</v>
       </c>
@@ -3334,7 +3628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>105</v>
       </c>
@@ -3342,7 +3636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>106</v>
       </c>
@@ -3350,75 +3644,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3438,43 +3724,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3494,47 +3772,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="49.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3545,7 +3815,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3556,7 +3826,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
@@ -3567,40 +3837,40 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>117</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
@@ -3611,150 +3881,150 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>128</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>131</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>137</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>145</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>149</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>151</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3765,7 +4035,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
@@ -3776,139 +4046,139 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>158</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>166</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>171</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>69</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +4189,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
@@ -3930,66 +4200,66 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>185</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>186</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>188</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>189</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -3997,12 +4267,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F87E2A-0313-4791-AB0B-5A0F50F85F0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EB3B6-8AE3-4544-AF9E-85139100AC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -618,6 +618,24 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>major changes at end</t>
+  </si>
+  <si>
+    <t>last day development</t>
+  </si>
+  <si>
+    <t>Redundancy in code</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Following documents and instructions</t>
+  </si>
+  <si>
+    <t>Collaborating work</t>
   </si>
 </sst>
 </file>
@@ -702,9 +720,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -740,6 +755,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2266,20 +2284,20 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2293,7 +2311,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2310,7 +2328,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2327,7 +2345,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -2344,7 +2362,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2352,15 +2370,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2382,7 +2400,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2395,161 +2413,161 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2558,12 +2576,12 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2572,12 +2590,12 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2586,12 +2604,12 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2600,12 +2618,12 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2619,7 +2637,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2633,7 +2651,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2647,7 +2665,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2661,13 +2679,13 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -2749,180 +2767,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -2938,42 +2956,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.25" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="7.125" customWidth="1"/>
     <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2981,7 +2999,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>42795</v>
       </c>
       <c r="C2">
@@ -2995,7 +3013,7 @@
       <c r="A3" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>42809</v>
       </c>
       <c r="C3">
@@ -3011,7 +3029,7 @@
       <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
@@ -3020,7 +3038,7 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>42823</v>
       </c>
     </row>
@@ -3028,7 +3046,7 @@
       <c r="A5" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>42837</v>
       </c>
     </row>
@@ -3036,7 +3054,7 @@
       <c r="A6" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>42851</v>
       </c>
     </row>
@@ -3049,66 +3067,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.5" customWidth="1"/>
     <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3123,21 +3141,21 @@
       <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3152,21 +3170,21 @@
       <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3181,21 +3199,21 @@
       <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3210,21 +3228,21 @@
       <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3239,21 +3257,21 @@
       <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3268,21 +3286,21 @@
       <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>42806</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3297,21 +3315,21 @@
       <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3326,61 +3344,61 @@
       <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>42810</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>108</v>
       </c>
       <c r="C20" t="s">
@@ -3392,9 +3410,37 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
         <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3407,7 +3453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -3419,31 +3465,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3454,10 +3500,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E2">
@@ -3474,10 +3520,10 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E3">
@@ -3494,10 +3540,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E4">
@@ -3514,10 +3560,10 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E5">
@@ -3537,7 +3583,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E6">
@@ -3557,7 +3603,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E7">
@@ -3577,7 +3623,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E8">
@@ -3597,7 +3643,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E9">
@@ -3608,70 +3654,70 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3695,31 +3741,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3743,31 +3789,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3789,51 +3835,51 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3844,7 +3890,7 @@
       <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3855,7 +3901,7 @@
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3866,18 +3912,18 @@
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3888,7 +3934,7 @@
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3899,7 +3945,7 @@
       <c r="B10" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3910,7 +3956,7 @@
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3921,7 +3967,7 @@
       <c r="B12" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3932,7 +3978,7 @@
       <c r="B13" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3943,7 +3989,7 @@
       <c r="B14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3954,7 +4000,7 @@
       <c r="B15" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3965,7 +4011,7 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3976,7 +4022,7 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3987,7 +4033,7 @@
       <c r="B18" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3998,7 +4044,7 @@
       <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4009,7 +4055,7 @@
       <c r="B20" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4020,29 +4066,29 @@
       <c r="B21" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4053,7 +4099,7 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4064,7 +4110,7 @@
       <c r="B25" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4075,7 +4121,7 @@
       <c r="B26" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4086,7 +4132,7 @@
       <c r="B27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4097,7 +4143,7 @@
       <c r="B28" t="s">
         <v>167</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4108,7 +4154,7 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4119,7 +4165,7 @@
       <c r="B30" t="s">
         <v>171</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4130,7 +4176,7 @@
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4141,7 +4187,7 @@
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4152,7 +4198,7 @@
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4163,7 +4209,7 @@
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4174,29 +4220,29 @@
       <c r="B35" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4207,7 +4253,7 @@
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4218,7 +4264,7 @@
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4229,7 +4275,7 @@
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4240,7 +4286,7 @@
       <c r="B41" t="s">
         <v>186</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4251,7 +4297,7 @@
       <c r="B42" t="s">
         <v>189</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4262,7 +4308,7 @@
       <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>191</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6EB3B6-8AE3-4544-AF9E-85139100AC99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0CE9A-39D9-4CAB-A0E6-9EC9FADFA962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2275,12 +2275,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2403,13 +2403,13 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2765,14 +2765,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2960,15 +2960,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3069,21 +3069,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3453,14 +3453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3547,10 +3547,10 @@
         <v>102</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="F4">
-        <v>360</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3735,12 +3735,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3783,12 +3783,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3827,15 +3827,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3850,7 +3850,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0CE9A-39D9-4CAB-A0E6-9EC9FADFA962}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6EDB1A-ED81-45D9-810B-43C71015F9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3454,7 +3454,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -3827,8 +3827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6EDB1A-ED81-45D9-810B-43C71015F9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B185068-A2A8-495A-93C2-5AAEA41F87E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -2275,12 +2275,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2399,17 +2399,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2679,10 +2679,32 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -2765,14 +2787,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2956,19 +2978,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3069,21 +3091,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3453,14 +3475,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3729,18 +3751,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3767,6 +3791,46 @@
       </c>
       <c r="I1" s="14" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -3783,12 +3847,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3827,15 +3891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A29" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3850,7 +3914,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -3861,7 +3925,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -3872,7 +3936,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -3883,7 +3947,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3894,7 +3958,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3905,7 +3969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3916,7 +3980,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -3927,7 +3991,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3938,7 +4002,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -3949,7 +4013,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -3960,7 +4024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -3971,7 +4035,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -3982,7 +4046,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -3993,7 +4057,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4004,7 +4068,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4015,7 +4079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4026,7 +4090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -4037,7 +4101,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -4048,7 +4112,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -4059,7 +4123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -4070,7 +4134,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4081,7 +4145,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4092,7 +4156,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4103,7 +4167,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -4114,7 +4178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -4125,7 +4189,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4136,7 +4200,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -4147,7 +4211,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4158,7 +4222,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -4169,7 +4233,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4180,7 +4244,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4191,7 +4255,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4202,7 +4266,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4213,7 +4277,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -4224,7 +4288,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4235,7 +4299,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4246,7 +4310,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4257,7 +4321,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4268,7 +4332,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4279,7 +4343,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -4290,7 +4354,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -4301,7 +4365,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B185068-A2A8-495A-93C2-5AAEA41F87E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FB809C-645A-44E7-8A01-005F0CCD7AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="198">
   <si>
     <t>Initials</t>
   </si>
@@ -718,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -759,6 +759,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2275,12 +2276,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2403,13 +2404,13 @@
       <selection activeCell="B18" sqref="B18:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2787,14 +2788,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2982,15 +2983,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3091,21 +3092,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3475,14 +3476,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3517,7 +3518,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -3566,13 +3567,22 @@
         <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>130</v>
       </c>
       <c r="F4">
         <v>580</v>
+      </c>
+      <c r="G4">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>480</v>
+      </c>
+      <c r="I4" s="22">
+        <v>42819</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3586,13 +3596,22 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>70</v>
       </c>
       <c r="F5">
         <v>580</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>480</v>
+      </c>
+      <c r="I5" s="22">
+        <v>42820</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3751,20 +3770,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3830,6 +3849,46 @@
         <v>70</v>
       </c>
       <c r="F3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5">
+        <v>70</v>
+      </c>
+      <c r="F5">
         <v>240</v>
       </c>
     </row>
@@ -3847,12 +3906,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -3891,15 +3950,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B30"/>
+    <sheetView topLeftCell="A30" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3914,7 +3973,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -3925,7 +3984,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -3936,7 +3995,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -3947,7 +4006,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -3958,7 +4017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -3969,7 +4028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -3980,7 +4039,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -3991,7 +4050,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -4002,7 +4061,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4013,7 +4072,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -4024,7 +4083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>128</v>
       </c>
@@ -4035,7 +4094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -4046,7 +4105,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -4057,7 +4116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
@@ -4068,7 +4127,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4079,7 +4138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4090,7 +4149,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -4101,7 +4160,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>145</v>
       </c>
@@ -4112,7 +4171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>148</v>
       </c>
@@ -4123,7 +4182,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>151</v>
       </c>
@@ -4134,7 +4193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4145,7 +4204,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4156,7 +4215,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4167,7 +4226,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>157</v>
       </c>
@@ -4178,7 +4237,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -4189,7 +4248,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -4200,7 +4259,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>166</v>
       </c>
@@ -4211,7 +4270,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4222,7 +4281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -4233,7 +4292,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -4244,7 +4303,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -4255,7 +4314,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -4266,7 +4325,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -4277,7 +4336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -4288,7 +4347,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4299,7 +4358,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4310,7 +4369,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -4321,7 +4380,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -4332,7 +4391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -4343,7 +4402,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -4354,7 +4413,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>188</v>
       </c>
@@ -4365,7 +4424,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BE762-EC84-4E1F-BCB8-CE1CE431BFAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,648 +42,631 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="198">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KandasamyP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmitaRath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinak08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundararaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanirudh1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifying doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following documents and instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborating work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">major changes at end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last day development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundancy in code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="199">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Kandasamy</t>
+  </si>
+  <si>
+    <t>Parthasarathy</t>
+  </si>
+  <si>
+    <t>kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t>KandasamyP</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t>SmitaRath</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pinak</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t>pinak08</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sundararaman</t>
+  </si>
+  <si>
+    <t>asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t>sanirudh1998</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t>Smita Rath</t>
+  </si>
+  <si>
+    <t>Pinak Pathak</t>
+  </si>
+  <si>
+    <t>Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Following documents and instructions</t>
+  </si>
+  <si>
+    <t>Collaborating work</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>major changes at end</t>
+  </si>
+  <si>
+    <t>last day development</t>
+  </si>
+  <si>
+    <t>Redundancy in code</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>List upcoming birthday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -679,19 +676,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -700,7 +685,6 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -725,7 +709,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -733,133 +717,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -918,17 +827,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -936,12 +865,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -951,45 +877,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>06/06/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/06/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/07/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17/07/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31/07/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1012,14 +948,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F905-4E40-80BE-FB5E06C03BA5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1028,17 +974,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="94664515"/>
         <c:axId val="67327019"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="94664515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1055,21 +1002,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="67327019"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="67327019"/>
         <c:scaling>
@@ -1104,13 +1052,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="94664515"/>
@@ -1119,7 +1068,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1128,24 +1077,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1153,12 +1112,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1168,45 +1124,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>d/m</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/3</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16/3</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30/3</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/4</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/4</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1220,23 +1186,24 @@
                 <c:pt idx="1">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2301-42E0-BC0A-76C69DA9842D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1245,17 +1212,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="85990121"/>
         <c:axId val="39753592"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="85990121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="D/M" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1272,21 +1240,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39753592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="39753592"/>
         <c:scaling>
@@ -1321,13 +1290,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="85990121"/>
@@ -1336,7 +1306,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1345,20 +1315,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1372,14 +1348,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3562920"/>
-        <a:ext cx="4931640" cy="2614680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1402,9 +1384,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1420,12 +1408,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1445,7 +1433,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1453,15 +1442,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1472,15 +1461,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1501,9 +1490,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1519,12 +1514,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1544,7 +1539,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1552,15 +1548,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1581,9 +1577,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1599,12 +1601,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1624,7 +1626,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1632,15 +1635,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1661,9 +1664,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1679,12 +1688,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1704,7 +1713,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1712,15 +1722,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1731,15 +1741,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1760,9 +1770,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1778,12 +1794,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1803,7 +1819,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1811,15 +1828,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1840,9 +1857,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1858,12 +1881,12 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1883,7 +1906,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1891,15 +1915,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1911,7 +1935,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1925,14 +1949,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1835280" y="1458360"/>
-        <a:ext cx="6181920" cy="2613960"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1945,182 +1975,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
-    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2136,8 +2450,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2153,8 +2467,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2170,8 +2484,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2187,8 +2501,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2204,8 +2518,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2221,8 +2535,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2238,8 +2552,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2255,584 +2569,560 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
-      <c r="G16" s="7" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="7">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="7" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="7">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="7">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="7">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>42795</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>42809</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C2-C3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>430</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <f aca="false">(E3-E2)/F3*60</f>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>42823</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -2851,7 +3141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -2864,23 +3154,23 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2893,23 +3183,23 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2922,23 +3212,23 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>70</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -2951,23 +3241,23 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -2980,23 +3270,23 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>720</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>42805</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3009,23 +3299,23 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>720</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>42806</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -3038,23 +3328,23 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>580</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3067,28 +3357,28 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>580</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>42810</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>104</v>
       </c>
@@ -3096,7 +3386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>105</v>
       </c>
@@ -3104,7 +3394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>106</v>
       </c>
@@ -3112,7 +3402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>107</v>
       </c>
@@ -3120,104 +3410,96 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="27.26953125" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3236,11 +3518,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3249,18 +3531,18 @@
       <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3269,139 +3551,151 @@
       <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E4">
         <v>130</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="G5">
+        <v>110</v>
+      </c>
+      <c r="H5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>580</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>360</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>360</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>360</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>104</v>
       </c>
@@ -3409,7 +3703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>105</v>
       </c>
@@ -3417,7 +3711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>106</v>
       </c>
@@ -3425,7 +3719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>107</v>
       </c>
@@ -3433,77 +3727,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3522,124 +3808,224 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>70</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>240</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>240</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>70</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>240</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>240</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6">
+        <v>80</v>
+      </c>
+      <c r="F6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3659,47 +4045,39 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
+    <sheetView topLeftCell="A32" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="13" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>32</v>
       </c>
@@ -3710,7 +4088,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
@@ -3721,7 +4099,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
@@ -3732,40 +4110,40 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" s="19" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
@@ -3776,150 +4154,150 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>141</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>142</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>145</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>148</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>156</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>161</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>162</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
         <v>41</v>
       </c>
@@ -3930,7 +4308,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
         <v>43</v>
       </c>
@@ -3941,139 +4319,139 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>168</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>171</v>
       </c>
       <c r="C26" s="21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>174</v>
       </c>
       <c r="C27" s="21" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>122</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>69</v>
       </c>
       <c r="C31" s="21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>184</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
@@ -4084,7 +4462,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" s="19" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
         <v>47</v>
       </c>
@@ -4095,66 +4473,66 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>79</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>192</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>194</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>195</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -4162,12 +4540,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63BE762-EC84-4E1F-BCB8-CE1CE431BFAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA486D-5273-46AA-9D68-1F6A56B13748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="200">
   <si>
     <t>Initials</t>
   </si>
@@ -639,6 +639,9 @@
   </si>
   <si>
     <t>List upcoming birthday</t>
+  </si>
+  <si>
+    <t>Direct commit on developmet or direct upload as file</t>
   </si>
 </sst>
 </file>
@@ -721,11 +724,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -761,6 +761,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2287,20 +2293,20 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2314,7 +2320,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2331,7 +2337,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2348,7 +2354,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -2365,7 +2371,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2373,15 +2379,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2416,161 +2422,161 @@
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2579,12 +2585,12 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2593,12 +2599,12 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2607,12 +2613,12 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2621,12 +2627,12 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2640,7 +2646,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2654,7 +2660,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2668,7 +2674,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2682,7 +2688,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2696,7 +2702,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -2710,7 +2716,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -2792,180 +2798,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
     <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="4" max="4" width="12.36328125" customWidth="1"/>
     <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -2988,35 +2994,35 @@
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
     <col min="3" max="3" width="23.26953125" customWidth="1"/>
     <col min="4" max="4" width="22.90625" customWidth="1"/>
     <col min="5" max="5" width="7.08984375" customWidth="1"/>
     <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3024,7 +3030,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>42795</v>
       </c>
       <c r="C2">
@@ -3038,7 +3044,7 @@
       <c r="A3" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>42809</v>
       </c>
       <c r="C3">
@@ -3054,7 +3060,7 @@
       <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
@@ -3063,7 +3069,7 @@
       <c r="A4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>42823</v>
       </c>
     </row>
@@ -3071,7 +3077,7 @@
       <c r="A5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>42837</v>
       </c>
     </row>
@@ -3079,7 +3085,7 @@
       <c r="A6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>42851</v>
       </c>
     </row>
@@ -3101,57 +3107,57 @@
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="8.453125" customWidth="1"/>
     <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3166,21 +3172,21 @@
       <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3195,21 +3201,21 @@
       <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3224,21 +3230,21 @@
       <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3253,21 +3259,21 @@
       <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3282,21 +3288,21 @@
       <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3311,21 +3317,21 @@
       <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>42806</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3340,21 +3346,21 @@
       <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3369,61 +3375,61 @@
       <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>42810</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C20" t="s">
@@ -3446,7 +3452,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C25" t="s">
@@ -3476,45 +3482,46 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C26"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="1025" width="11" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3525,10 +3532,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E2">
@@ -3545,10 +3552,10 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E3">
@@ -3565,10 +3572,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3591,10 +3598,10 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3620,7 +3627,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E6">
@@ -3640,7 +3647,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E7">
@@ -3660,7 +3667,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E8">
@@ -3680,7 +3687,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E9">
@@ -3691,71 +3698,76 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C27" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -3768,8 +3780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -3780,31 +3792,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3818,7 +3830,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E2">
@@ -3838,7 +3850,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>119</v>
       </c>
       <c r="E3">
@@ -3929,70 +3941,70 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4016,31 +4028,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4062,51 +4074,51 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4117,7 +4129,7 @@
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4128,7 +4140,7 @@
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4139,18 +4151,18 @@
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="19" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4161,7 +4173,7 @@
       <c r="B9" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4172,7 +4184,7 @@
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4183,7 +4195,7 @@
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4194,7 +4206,7 @@
       <c r="B12" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4205,7 +4217,7 @@
       <c r="B13" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4216,7 +4228,7 @@
       <c r="B14" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4227,7 +4239,7 @@
       <c r="B15" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4238,7 +4250,7 @@
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4249,7 +4261,7 @@
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4260,7 +4272,7 @@
       <c r="B18" t="s">
         <v>153</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4271,7 +4283,7 @@
       <c r="B19" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4282,7 +4294,7 @@
       <c r="B20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4293,29 +4305,29 @@
       <c r="B21" t="s">
         <v>162</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4326,7 +4338,7 @@
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4337,7 +4349,7 @@
       <c r="B25" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4348,7 +4360,7 @@
       <c r="B26" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4359,7 +4371,7 @@
       <c r="B27" t="s">
         <v>174</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4370,7 +4382,7 @@
       <c r="B28" t="s">
         <v>122</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4381,7 +4393,7 @@
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>177</v>
       </c>
     </row>
@@ -4392,7 +4404,7 @@
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4403,7 +4415,7 @@
       <c r="B31" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4414,7 +4426,7 @@
       <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4425,7 +4437,7 @@
       <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4436,7 +4448,7 @@
       <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4447,29 +4459,29 @@
       <c r="B35" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4480,7 +4492,7 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4491,7 +4503,7 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4502,7 +4514,7 @@
       <c r="B40" t="s">
         <v>81</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4513,7 +4525,7 @@
       <c r="B41" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4524,7 +4536,7 @@
       <c r="B42" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4535,7 +4547,7 @@
       <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA486D-5273-46AA-9D68-1F6A56B13748}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45867BE7-311E-478E-BDB6-15B4FA10F2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -762,11 +762,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2284,12 +2284,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2382,12 +2382,12 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2412,13 +2412,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2796,14 +2796,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2991,15 +2991,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3104,17 +3104,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3485,14 +3485,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3636,6 +3636,12 @@
       <c r="F6">
         <v>580</v>
       </c>
+      <c r="G6">
+        <v>74</v>
+      </c>
+      <c r="H6">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3656,6 +3662,12 @@
       <c r="F7">
         <v>360</v>
       </c>
+      <c r="G7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>240</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3765,8 +3777,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3784,10 +3796,10 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4019,15 +4031,15 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4066,15 +4078,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4089,7 +4101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -4111,7 +4123,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -4122,7 +4134,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4155,7 +4167,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -4166,7 +4178,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4177,7 +4189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4188,7 +4200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -4199,7 +4211,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4210,7 +4222,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4221,7 +4233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4232,7 +4244,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4243,7 +4255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4265,7 +4277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -4287,7 +4299,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -4298,7 +4310,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -4309,7 +4321,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4342,7 +4354,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -4353,7 +4365,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4364,7 +4376,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -4375,7 +4387,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -4386,7 +4398,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4397,7 +4409,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4419,7 +4431,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4441,7 +4453,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4452,7 +4464,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4463,7 +4475,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4474,7 +4486,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4485,7 +4497,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4507,7 +4519,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4518,7 +4530,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4529,7 +4541,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -4540,7 +4552,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45867BE7-311E-478E-BDB6-15B4FA10F2B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD2E46-358D-4680-85D7-1A5DDA8CCFE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="200">
   <si>
     <t>Initials</t>
   </si>
@@ -1191,6 +1191,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,12 +2287,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2408,17 +2411,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2580,13 +2583,16 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2602,6 +2608,9 @@
       <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -2616,6 +2625,9 @@
       <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -2630,6 +2642,9 @@
       <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -2644,6 +2659,9 @@
       <c r="D14" t="s">
         <v>10</v>
       </c>
+      <c r="E14" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -2658,6 +2676,9 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -2672,8 +2693,11 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -2686,8 +2710,11 @@
       <c r="D17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -2701,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>3</v>
       </c>
@@ -2715,18 +2742,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>68</v>
       </c>
@@ -2734,7 +2778,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>70</v>
       </c>
@@ -2742,7 +2786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>72</v>
       </c>
@@ -2750,7 +2794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>74</v>
       </c>
@@ -2758,7 +2802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>76</v>
       </c>
@@ -2766,7 +2810,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>78</v>
       </c>
@@ -2774,7 +2818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>80</v>
       </c>
@@ -2792,18 +2836,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2988,18 +3032,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3071,6 +3115,12 @@
       </c>
       <c r="B4" s="5">
         <v>42823</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3101,20 +3151,20 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3482,17 +3532,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3536,13 +3586,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2">
         <v>360</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3556,13 +3609,16 @@
         <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>70</v>
       </c>
       <c r="F3">
         <v>360</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3590,6 +3646,9 @@
       <c r="H4">
         <v>480</v>
       </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3616,6 +3675,9 @@
       <c r="H5">
         <v>480</v>
       </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3628,7 +3690,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>70</v>
@@ -3641,6 +3703,9 @@
       </c>
       <c r="H6">
         <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3654,7 +3719,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3667,6 +3732,9 @@
       </c>
       <c r="H7">
         <v>240</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3680,13 +3748,16 @@
         <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>70</v>
       </c>
       <c r="F8">
         <v>360</v>
+      </c>
+      <c r="I8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3700,13 +3771,16 @@
         <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>70</v>
       </c>
       <c r="F9">
         <v>360</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3765,9 +3839,15 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
+      <c r="C23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
@@ -3777,9 +3857,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="C27" s="21" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3792,14 +3882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3949,6 +4039,46 @@
         <v>70</v>
       </c>
       <c r="F7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
         <v>240</v>
       </c>
     </row>
@@ -4034,12 +4164,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4078,15 +4208,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4101,7 +4231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -4112,7 +4242,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -4123,7 +4253,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -4134,7 +4264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4145,7 +4275,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4156,7 +4286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4167,7 +4297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -4178,7 +4308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4189,7 +4319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4200,7 +4330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -4211,7 +4341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4222,7 +4352,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4233,7 +4363,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4244,7 +4374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4255,7 +4385,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4266,7 +4396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4277,7 +4407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -4288,7 +4418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -4299,7 +4429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -4310,7 +4440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -4321,7 +4451,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4332,7 +4462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4343,7 +4473,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4354,7 +4484,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -4365,7 +4495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4376,7 +4506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -4387,7 +4517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -4398,7 +4528,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4409,7 +4539,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4420,7 +4550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4431,7 +4561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4442,7 +4572,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4453,7 +4583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4464,7 +4594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4475,7 +4605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4486,7 +4616,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4497,7 +4627,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4508,7 +4638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4519,7 +4649,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4530,7 +4660,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4541,7 +4671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -4552,7 +4682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFD2E46-358D-4680-85D7-1A5DDA8CCFE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06727D-4F9A-405E-84A6-B0E080DFC9B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="200">
   <si>
     <t>Initials</t>
   </si>
@@ -2287,12 +2287,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2409,19 +2409,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2770,59 +2770,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2840,14 +2840,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3035,15 +3035,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3150,21 +3150,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3534,15 +3534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="24.25" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3699,13 +3699,13 @@
         <v>580</v>
       </c>
       <c r="G6">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H6">
-        <v>300</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+        <v>360</v>
+      </c>
+      <c r="I6" s="5">
+        <v>42823</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3733,8 +3733,8 @@
       <c r="H7">
         <v>240</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
+      <c r="I7" s="5">
+        <v>42823</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3857,7 +3857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C27" s="21" t="s">
         <v>199</v>
       </c>
@@ -3882,14 +3882,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4164,12 +4164,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4212,11 +4212,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4231,7 +4231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4319,7 +4319,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4506,7 +4506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4583,7 +4583,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD06727D-4F9A-405E-84A6-B0E080DFC9B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621772FD-8C9F-48F1-9E84-A850A2FACC45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="200">
   <si>
     <t>Initials</t>
   </si>
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -768,6 +768,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2287,12 +2288,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2415,13 +2416,13 @@
       <selection activeCell="B26" sqref="B26:C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2840,14 +2841,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3035,15 +3036,15 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3151,20 +3152,20 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3534,15 +3535,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3646,8 +3647,8 @@
       <c r="H4">
         <v>480</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
+      <c r="I4" s="23">
+        <v>42819</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3675,8 +3676,8 @@
       <c r="H5">
         <v>480</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
+      <c r="I5" s="23">
+        <v>42823</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3857,7 +3858,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="C27" s="21" t="s">
         <v>199</v>
       </c>
@@ -3886,10 +3887,10 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4164,12 +4165,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4212,11 +4213,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4231,7 +4232,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>32</v>
       </c>
@@ -4242,7 +4243,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
@@ -4253,7 +4254,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4297,7 +4298,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>39</v>
       </c>
@@ -4308,7 +4309,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>120</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -4330,7 +4331,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>138</v>
       </c>
@@ -4352,7 +4353,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>144</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>147</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4396,7 +4397,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4407,7 +4408,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>152</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>155</v>
       </c>
@@ -4429,7 +4430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>158</v>
       </c>
@@ -4440,7 +4441,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>161</v>
       </c>
@@ -4451,7 +4452,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>41</v>
       </c>
@@ -4462,7 +4463,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>43</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4484,7 +4485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>170</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="120" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>173</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4550,7 +4551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4561,7 +4562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>45</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -4627,7 +4628,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -4649,7 +4650,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>194</v>
       </c>
@@ -4682,7 +4683,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="203">
   <si>
     <t xml:space="preserve">Initials</t>
   </si>
@@ -396,163 +396,166 @@
     <t xml:space="preserve">Not Done</t>
   </si>
   <si>
+    <t xml:space="preserve">List Orphans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage before divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bigamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents not too old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No marriages to descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique families by spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique first names in families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
     <t xml:space="preserve">US27</t>
   </si>
   <si>
     <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
   </si>
   <si>
     <t xml:space="preserve">Include person's current age when listing individuals</t>
@@ -1049,11 +1052,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="34779781"/>
-        <c:axId val="271122"/>
+        <c:axId val="43797679"/>
+        <c:axId val="26447044"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34779781"/>
+        <c:axId val="43797679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,14 +1088,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="271122"/>
+        <c:crossAx val="26447044"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271122"/>
+        <c:axId val="26447044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1137,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34779781"/>
+        <c:crossAx val="43797679"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1266,11 +1269,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="62319628"/>
-        <c:axId val="4903891"/>
+        <c:axId val="57264680"/>
+        <c:axId val="59961464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62319628"/>
+        <c:axId val="57264680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,14 +1305,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4903891"/>
+        <c:crossAx val="59961464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4903891"/>
+        <c:axId val="59961464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1354,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62319628"/>
+        <c:crossAx val="57264680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1389,9 +1392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>395280</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1400,7 +1403,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="948960" y="3562920"/>
-        <a:ext cx="4931280" cy="2613240"/>
+        <a:ext cx="4930920" cy="2612880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1419,9 +1422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>945720</xdr:colOff>
+      <xdr:colOff>945360</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1346400" y="1482840"/>
-          <a:ext cx="1242360" cy="618480"/>
+          <a:ext cx="1242000" cy="618120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1518,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>496800</xdr:colOff>
+      <xdr:colOff>496440</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1530,7 +1533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5598360" y="1457280"/>
-          <a:ext cx="1270440" cy="525600"/>
+          <a:ext cx="1270080" cy="525240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1598,9 +1601,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1610,7 +1613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2882520" y="1296000"/>
-          <a:ext cx="1097280" cy="779760"/>
+          <a:ext cx="1096920" cy="779400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1678,9 +1681,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>505440</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1690,7 +1693,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4016160" y="1609560"/>
-          <a:ext cx="411480" cy="415440"/>
+          <a:ext cx="411120" cy="415080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1777,9 +1780,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1789,7 +1792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4497480" y="1312200"/>
-          <a:ext cx="1077480" cy="729720"/>
+          <a:ext cx="1077120" cy="729360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1857,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
+      <xdr:colOff>623520</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1869,7 +1872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5750640" y="5028120"/>
-          <a:ext cx="1245240" cy="618480"/>
+          <a:ext cx="1244880" cy="618120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1942,9 +1945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>395280</xdr:colOff>
+      <xdr:colOff>394920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1953,7 +1956,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1835640" y="1458360"/>
-        <a:ext cx="6181920" cy="2612520"/>
+        <a:ext cx="6181560" cy="2612160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2109,7 +2112,7 @@
   </sheetPr>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -2881,7 +2884,7 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3233,7 +3236,7 @@
   </sheetPr>
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -3630,8 +3633,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3712,10 +3715,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
@@ -3787,6 +3790,46 @@
         <v>70</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>240</v>
       </c>
     </row>
@@ -3952,7 +3995,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3963,7 +4006,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3974,7 +4017,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3985,18 +4028,18 @@
         <v>38</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4007,7 +4050,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,7 +4061,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" s="21" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,7 +4072,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4083,7 @@
         <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4051,7 +4094,7 @@
         <v>72</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,51 +4105,51 @@
         <v>50</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="23" t="s">
         <v>138</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="23" t="s">
         <v>141</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="23" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="23" t="s">
         <v>147</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4160,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,51 +4171,51 @@
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="23" t="s">
         <v>152</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="23" t="s">
         <v>155</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="23" t="s">
         <v>158</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="23" t="s">
         <v>161</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="22" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,7 +4226,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4194,7 +4237,7 @@
         <v>44</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4205,51 +4248,51 @@
         <v>57</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="23" t="s">
         <v>167</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="23" t="s">
         <v>170</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="23" t="s">
         <v>173</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,7 +4303,7 @@
         <v>65</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,7 +4314,7 @@
         <v>67</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,7 +4325,7 @@
         <v>71</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,7 +4336,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +4347,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4315,18 +4358,18 @@
         <v>69</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,7 +4380,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4348,18 +4391,18 @@
         <v>48</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,43 +4410,43 @@
         <v>73</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4414,7 +4457,7 @@
         <v>59</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E243B6-7549-4F70-8696-4B21CC278B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,664 +42,644 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="203">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KandasamyP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmitaRath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinak08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundararaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanirudh1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifying doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following documents and Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborating work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major changes at end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last day development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundancy in code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and Discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following documents and instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct commit on developmet or direct upload as file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="203">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Kandasamy</t>
+  </si>
+  <si>
+    <t>Parthasarathy</t>
+  </si>
+  <si>
+    <t>kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t>KandasamyP</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t>SmitaRath</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pinak</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t>pinak08</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sundararaman</t>
+  </si>
+  <si>
+    <t>asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t>sanirudh1998</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthday</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t>Smita Rath</t>
+  </si>
+  <si>
+    <t>Pinak Pathak</t>
+  </si>
+  <si>
+    <t>Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Following documents and Instructions</t>
+  </si>
+  <si>
+    <t>Collaborating work</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Major changes at end</t>
+  </si>
+  <si>
+    <t>last day development</t>
+  </si>
+  <si>
+    <t>Redundancy in code</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Daily meeting and Discussion</t>
+  </si>
+  <si>
+    <t>Following documents and instructions</t>
+  </si>
+  <si>
+    <t>Direct commit on developmet or direct upload as file</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>List Orphans</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -695,19 +689,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -716,7 +698,6 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -741,7 +722,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -749,141 +730,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -942,17 +844,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -960,12 +882,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -975,45 +894,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>06/06/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/06/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/07/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17/07/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31/07/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1036,14 +965,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F82D-46F3-BE89-79869521DDEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1052,17 +991,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="43797679"/>
         <c:axId val="26447044"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="43797679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1079,21 +1019,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="26447044"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="26447044"/>
         <c:scaling>
@@ -1128,13 +1069,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="43797679"/>
@@ -1143,7 +1085,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1152,24 +1094,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1177,12 +1129,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1192,45 +1141,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>d/m</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/3</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16/3</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30/3</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/4</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/4</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1247,20 +1206,24 @@
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C69-4005-9BE1-64E18DCF05D4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1269,17 +1232,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="57264680"/>
         <c:axId val="59961464"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="57264680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="D/M" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1296,21 +1260,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="59961464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="59961464"/>
         <c:scaling>
@@ -1345,13 +1310,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="57264680"/>
@@ -1360,7 +1326,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1369,20 +1335,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1396,14 +1368,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948960" y="3562920"/>
-        <a:ext cx="4930920" cy="2612880"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1426,9 +1404,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1445,11 +1429,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1469,7 +1453,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1477,15 +1462,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1496,15 +1481,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1525,9 +1510,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1544,11 +1535,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1568,7 +1559,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1576,15 +1568,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1605,9 +1597,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1624,11 +1622,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1648,7 +1646,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1656,15 +1655,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1685,9 +1684,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1704,11 +1709,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1728,7 +1733,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1736,15 +1742,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1755,15 +1761,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1784,9 +1790,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1803,11 +1815,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1827,7 +1839,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1835,15 +1848,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1864,9 +1877,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1883,11 +1902,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1907,7 +1926,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1915,15 +1935,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1935,7 +1955,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1949,14 +1969,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1835640" y="1458360"/>
-        <a:ext cx="6181560" cy="2612160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1969,182 +1995,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
-    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2160,8 +2470,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2177,8 +2487,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2194,8 +2504,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2211,8 +2521,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2228,8 +2538,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2245,8 +2555,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2262,8 +2572,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2279,637 +2589,641 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="10" t="n">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="10" t="n">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
-      <c r="G16" s="7" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="7">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="10" t="n">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="7" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="7">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="10" t="n">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="7" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="7">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="10" t="n">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="7" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="7">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="6">
         <v>42795</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="6">
         <v>42809</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C2-C3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>430</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="7" t="n">
-        <f aca="false">(E3-E2)/F3*60</f>
+      <c r="G3" s="7">
+        <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="6">
         <v>42823</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>685</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>2580</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>15.9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="6">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
+    <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -2928,7 +3242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -2938,23 +3252,23 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="6">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -2964,23 +3278,23 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -2990,23 +3304,23 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>70</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="6">
         <v>42809</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -3016,23 +3330,23 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -3042,23 +3356,23 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>720</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="6">
         <v>42805</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3068,23 +3382,23 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>720</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>42806</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -3094,23 +3408,23 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>580</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="6">
         <v>42808</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3120,145 +3434,137 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>580</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>42810</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18"/>
     </row>
-    <row r="18" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3277,11 +3583,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3290,27 +3596,27 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>80</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>270</v>
       </c>
-      <c r="I2" s="19" t="n">
+      <c r="I2" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3319,27 +3625,27 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="19" t="n">
+      <c r="I3" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3348,27 +3654,27 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>130</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>480</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="19">
         <v>42819</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3377,158 +3683,158 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>110</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>480</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>580</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>74</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>360</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>71</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>240</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>360</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>80</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>360</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>240</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="19">
         <v>42823</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10">
         <v>580</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>3180</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>685</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>2580</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>102</v>
       </c>
@@ -3544,7 +3850,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>103</v>
       </c>
@@ -3552,7 +3858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>104</v>
       </c>
@@ -3560,101 +3866,93 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="18"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="13"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C27" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3673,172 +3971,172 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>70</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>240</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>240</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>70</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>240</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>240</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>80</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>240</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>70</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>240</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>240</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>240</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="18" t="s">
         <v>101</v>
       </c>
@@ -3846,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="18" t="s">
         <v>102</v>
       </c>
@@ -3854,7 +4152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="18" t="s">
         <v>103</v>
       </c>
@@ -3862,7 +4160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
         <v>104</v>
       </c>
@@ -3870,75 +4168,67 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="14"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11"/>
+    <col min="1" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="15" t="s">
@@ -3957,48 +4247,62 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
@@ -4009,7 +4313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
@@ -4020,7 +4324,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -4031,40 +4335,40 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>128</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" s="21" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" s="21" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
@@ -4075,150 +4379,150 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>72</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>137</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>143</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>146</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>150</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>154</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>157</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>160</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>41</v>
       </c>
@@ -4229,7 +4533,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>43</v>
       </c>
@@ -4240,139 +4544,139 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="23" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>166</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>169</v>
       </c>
       <c r="C26" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>172</v>
       </c>
       <c r="C27" s="23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>174</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>175</v>
       </c>
       <c r="C28" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>183</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>184</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>45</v>
       </c>
@@ -4383,7 +4687,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" s="21" customFormat="true" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>47</v>
       </c>
@@ -4394,66 +4698,66 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>188</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>189</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>191</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>193</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>194</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>197</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>200</v>
       </c>
       <c r="C42" s="23" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="23" t="s">
@@ -4461,12 +4765,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E243B6-7549-4F70-8696-4B21CC278B8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896DBB75-B2F6-4B23-B367-9C02EE5D57BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="203">
   <si>
     <t>Initials</t>
   </si>
@@ -663,7 +663,7 @@
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -700,8 +700,13 @@
       <name val="Cambria"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +725,12 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -734,11 +745,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,6 +787,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2298,29 +2314,29 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2334,7 +2350,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2351,7 +2367,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2368,7 +2384,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -2385,7 +2401,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2393,15 +2409,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2426,171 +2442,171 @@
       <selection activeCell="B26" sqref="B26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2599,7 +2615,7 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
@@ -2607,7 +2623,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2616,7 +2632,7 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
@@ -2624,7 +2640,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2633,7 +2649,7 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
@@ -2641,7 +2657,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2650,7 +2666,7 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
@@ -2658,7 +2674,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2675,7 +2691,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2692,7 +2708,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2709,7 +2725,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2726,7 +2742,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2740,7 +2756,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -2754,7 +2770,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -2879,182 +2895,182 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>41065</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>24</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>41078</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>250</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>120</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>41092</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>480</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>135</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>41106</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>740</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>160</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>41120</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>1100</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>145</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -3074,38 +3090,38 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3113,7 +3129,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>42795</v>
       </c>
       <c r="C2">
@@ -3127,7 +3143,7 @@
       <c r="A3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>42809</v>
       </c>
       <c r="C3">
@@ -3143,7 +3159,7 @@
       <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
@@ -3152,7 +3168,7 @@
       <c r="A4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>42823</v>
       </c>
       <c r="C4">
@@ -3167,7 +3183,7 @@
       <c r="F4">
         <v>2580</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>15.9</v>
       </c>
     </row>
@@ -3175,7 +3191,7 @@
       <c r="A5" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>42837</v>
       </c>
     </row>
@@ -3183,7 +3199,7 @@
       <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>42851</v>
       </c>
     </row>
@@ -3198,58 +3214,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3264,18 +3280,18 @@
       <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3290,18 +3306,18 @@
       <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3316,18 +3332,18 @@
       <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>42809</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3342,18 +3358,18 @@
       <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3368,18 +3384,18 @@
       <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>42805</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3394,18 +3410,18 @@
       <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>42806</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3420,18 +3436,18 @@
       <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>42808</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3446,48 +3462,48 @@
       <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>42810</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C20" t="s">
@@ -3510,7 +3526,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>111</v>
       </c>
       <c r="C25" t="s">
@@ -3542,44 +3558,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3590,10 +3606,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3608,7 +3624,7 @@
       <c r="H2">
         <v>270</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3619,10 +3635,10 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3637,7 +3653,7 @@
       <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3648,10 +3664,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3666,7 +3682,7 @@
       <c r="H4">
         <v>480</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>42819</v>
       </c>
     </row>
@@ -3677,10 +3693,10 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3695,7 +3711,7 @@
       <c r="H5">
         <v>480</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3709,7 +3725,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3724,7 +3740,7 @@
       <c r="H6">
         <v>300</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3738,7 +3754,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3753,7 +3769,7 @@
       <c r="H7">
         <v>240</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3767,7 +3783,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3782,7 +3798,7 @@
       <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3796,7 +3812,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3811,7 +3827,7 @@
       <c r="H9">
         <v>240</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>42823</v>
       </c>
     </row>
@@ -3830,56 +3846,56 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C22" t="s">
@@ -3887,27 +3903,27 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="12"/>
       <c r="C23" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
       <c r="C24" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="C27" s="20" t="s">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
+      <c r="C27" s="19" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3935,39 +3951,39 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3981,7 +3997,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E2">
@@ -4001,7 +4017,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E3">
@@ -4132,70 +4148,70 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="18"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="12"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4207,43 +4223,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="11" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4267,6 +4285,17 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4279,488 +4308,488 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="21" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="25" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
       <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
       <c r="B14" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
       <c r="B15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
       <c r="B19" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+    <row r="23" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
       <c r="B25" t="s">
         <v>166</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="22" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
       <c r="B26" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
       <c r="B27" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="22" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
       <c r="B35" t="s">
         <v>184</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="22" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
-      <c r="A36" s="21" t="s">
+    <row r="36" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21" t="s">
+    <row r="37" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
       <c r="B38" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="22" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>196</v>
       </c>
       <c r="B41" t="s">
         <v>197</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="22" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
       <c r="B42" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="22" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="22" t="s">
         <v>202</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896DBB75-B2F6-4B23-B367-9C02EE5D57BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49ACD9-25D0-4E46-9D31-54341DBE609B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="203">
   <si>
     <t>Initials</t>
   </si>
@@ -787,14 +787,14 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2412,12 +2412,12 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4223,10 +4223,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4294,7 +4294,18 @@
       <c r="B4" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4308,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -4408,25 +4419,25 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>134</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C49ACD9-25D0-4E46-9D31-54341DBE609B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4AD6BA-0CB2-4CCA-B37C-36B8720B9F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="204">
   <si>
     <t>Initials</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Avoid last day development</t>
   </si>
 </sst>
 </file>
@@ -2314,12 +2317,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2438,17 +2441,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2754,6 +2757,9 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2767,6 +2773,9 @@
       </c>
       <c r="D19" t="s">
         <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2895,14 +2904,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3090,15 +3099,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3215,20 +3224,20 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3558,15 +3567,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3922,7 +3931,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C27" s="19" t="s">
         <v>120</v>
       </c>
@@ -3945,17 +3954,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="1025" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -4006,6 +4016,15 @@
       <c r="F2">
         <v>240</v>
       </c>
+      <c r="G2">
+        <v>113</v>
+      </c>
+      <c r="H2">
+        <v>540</v>
+      </c>
+      <c r="I2" s="5">
+        <v>42837</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4026,6 +4045,15 @@
       <c r="F3">
         <v>240</v>
       </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <v>240</v>
+      </c>
+      <c r="I3" s="5">
+        <v>42837</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4200,18 +4228,35 @@
       <c r="B23" s="13" t="s">
         <v>106</v>
       </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
+      <c r="C26" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="13" t="s">
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4225,14 +4270,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4323,11 +4368,11 @@
       <selection activeCell="A13" sqref="A13:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4342,7 +4387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -4353,7 +4398,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
@@ -4364,7 +4409,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
@@ -4375,7 +4420,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4386,7 +4431,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4397,7 +4442,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4408,7 +4453,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
@@ -4419,7 +4464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>117</v>
       </c>
@@ -4430,7 +4475,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
@@ -4441,7 +4486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -4452,7 +4497,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -4463,7 +4508,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4474,7 +4519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -4485,7 +4530,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -4496,7 +4541,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4507,7 +4552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4518,7 +4563,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -4529,7 +4574,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -4540,7 +4585,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -4551,7 +4596,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -4562,7 +4607,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -4573,7 +4618,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -4584,7 +4629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4595,7 +4640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -4606,7 +4651,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -4617,7 +4662,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4628,7 +4673,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4639,7 +4684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4650,7 +4695,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4661,7 +4706,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4672,7 +4717,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4683,7 +4728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4694,7 +4739,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4705,7 +4750,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4716,7 +4761,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
@@ -4727,7 +4772,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
@@ -4738,7 +4783,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -4749,7 +4794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -4760,7 +4805,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4771,7 +4816,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -4782,7 +4827,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -4793,7 +4838,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4AD6BA-0CB2-4CCA-B37C-36B8720B9F8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1602F2E5-6969-4E09-8654-CDBE664E7F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="204">
   <si>
     <t>Initials</t>
   </si>
@@ -2441,8 +2441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3224,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3248,6 +3248,9 @@
       <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
@@ -3274,6 +3277,9 @@
       <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
@@ -3300,6 +3306,9 @@
       <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
@@ -3326,6 +3335,9 @@
       <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
@@ -3352,6 +3364,9 @@
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
@@ -3378,6 +3393,9 @@
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
@@ -3404,6 +3422,9 @@
       <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
@@ -3430,6 +3451,9 @@
       <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
@@ -3455,6 +3479,9 @@
       </c>
       <c r="B9" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
@@ -3567,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:C29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3957,7 +3984,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4008,7 +4035,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E2">
         <v>70</v>
@@ -4037,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>70</v>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1602F2E5-6969-4E09-8654-CDBE664E7F66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F85EE-B2DA-405D-B051-449423D259D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2317,12 +2317,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2445,13 +2445,13 @@
       <selection activeCell="D1" sqref="D1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2904,14 +2904,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3099,15 +3099,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3227,17 +3227,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3594,15 +3594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3958,7 +3958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="C27" s="19" t="s">
         <v>120</v>
       </c>
@@ -3987,11 +3987,11 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4297,14 +4297,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4361,10 +4361,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>5</v>
@@ -4391,15 +4391,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B13"/>
+    <sheetView topLeftCell="A36" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4414,7 +4414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>117</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9F85EE-B2DA-405D-B051-449423D259D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7067185F-6EE0-4F0D-9826-D81555BAF7D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2317,12 +2317,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2445,13 +2445,13 @@
       <selection activeCell="D1" sqref="D1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2904,14 +2904,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3099,15 +3099,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="6" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3227,17 +3227,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="5" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3598,11 +3598,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3958,7 +3958,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C27" s="19" t="s">
         <v>120</v>
       </c>
@@ -3983,15 +3983,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4044,7 +4044,7 @@
         <v>240</v>
       </c>
       <c r="G2">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="H2">
         <v>540</v>
@@ -4073,7 +4073,7 @@
         <v>240</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <v>240</v>
@@ -4297,14 +4297,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4395,11 +4395,11 @@
       <selection activeCell="A40" sqref="A40:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="12" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4414,7 +4414,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>32</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>35</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>37</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="20" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="20" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>39</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>117</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="23" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>49</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>116</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>136</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>139</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>142</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>150</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>153</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>156</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>159</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>165</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>171</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>174</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="20" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>45</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="20" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>47</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>188</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>196</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>199</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="true"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="205">
   <si>
     <t xml:space="preserve">Initials</t>
   </si>
@@ -279,6 +279,18 @@
     <t xml:space="preserve">List large age differences</t>
   </si>
   <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No marriages to descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry</t>
+  </si>
+  <si>
     <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
   </si>
   <si>
@@ -426,18 +438,9 @@
     <t xml:space="preserve">Parents not too old</t>
   </si>
   <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
     <t xml:space="preserve">No marriages to descendantsPP</t>
   </si>
   <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Story Description</t>
   </si>
   <si>
@@ -511,9 +514,6 @@
   </si>
   <si>
     <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
   </si>
   <si>
     <t xml:space="preserve">Parents should not marry any of their descendants</t>
@@ -649,14 +649,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
-    <numFmt numFmtId="170" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -703,6 +702,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -719,11 +723,6 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -789,7 +788,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,6 +810,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -858,7 +861,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -872,14 +875,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -967,7 +962,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1072,11 +1067,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="36063441"/>
-        <c:axId val="1573779"/>
+        <c:axId val="95366701"/>
+        <c:axId val="29231846"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="36063441"/>
+        <c:axId val="95366701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,14 +1103,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1573779"/>
+        <c:crossAx val="29231846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1573779"/>
+        <c:axId val="29231846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1152,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36063441"/>
+        <c:crossAx val="95366701"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1184,7 +1179,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1289,11 +1284,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="27977271"/>
-        <c:axId val="61206134"/>
+        <c:axId val="69734564"/>
+        <c:axId val="90044933"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="27977271"/>
+        <c:axId val="69734564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1325,14 +1320,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61206134"/>
+        <c:crossAx val="90044933"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61206134"/>
+        <c:axId val="90044933"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,7 +1369,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27977271"/>
+        <c:crossAx val="69734564"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1412,9 +1407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1422,8 +1417,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948240" y="3562920"/>
-        <a:ext cx="4929480" cy="2612520"/>
+        <a:off x="948960" y="3562920"/>
+        <a:ext cx="4930200" cy="2612160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1442,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>945000</xdr:colOff>
+      <xdr:colOff>944640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1453,8 +1448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1345680" y="1482840"/>
-          <a:ext cx="1242000" cy="617760"/>
+          <a:off x="1346400" y="1482840"/>
+          <a:ext cx="1241280" cy="617400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1541,9 +1536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>496080</xdr:colOff>
+      <xdr:colOff>495720</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1552,8 +1547,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5596560" y="1457280"/>
-          <a:ext cx="1269720" cy="524880"/>
+          <a:off x="5598360" y="1457280"/>
+          <a:ext cx="1269360" cy="524520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1621,9 +1616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1632,8 +1627,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2882160" y="1296000"/>
-          <a:ext cx="1095840" cy="779040"/>
+          <a:off x="2882520" y="1296000"/>
+          <a:ext cx="1096200" cy="778680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1701,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:colOff>504360</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1712,8 +1707,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4015080" y="1609560"/>
-          <a:ext cx="410760" cy="414720"/>
+          <a:off x="4016160" y="1609560"/>
+          <a:ext cx="410400" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1800,9 +1795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1811,8 +1806,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495320" y="1312200"/>
-          <a:ext cx="1077120" cy="729000"/>
+          <a:off x="4497480" y="1312200"/>
+          <a:ext cx="1076400" cy="728640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1880,9 +1875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>623160</xdr:colOff>
+      <xdr:colOff>622800</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
+      <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1891,8 +1886,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5748840" y="5028120"/>
-          <a:ext cx="1244520" cy="617760"/>
+          <a:off x="5750640" y="5028120"/>
+          <a:ext cx="1244160" cy="617400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -1965,9 +1960,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>394560</xdr:colOff>
+      <xdr:colOff>394200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1975,8 +1970,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1835280" y="1458360"/>
-        <a:ext cx="6179760" cy="2611800"/>
+        <a:off x="1835640" y="1458360"/>
+        <a:ext cx="6180840" cy="2611440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2130,10 +2125,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2482,6 +2477,9 @@
       <c r="D20" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="E20" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -2496,6 +2494,9 @@
       <c r="D21" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -2579,6 +2580,34 @@
       </c>
       <c r="D27" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2605,180 +2634,180 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>83</v>
+      <c r="A1" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>84</v>
+      <c r="A2" s="7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>85</v>
+      <c r="A3" s="7" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>86</v>
+      <c r="A5" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>87</v>
+      <c r="A6" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>88</v>
+      <c r="A8" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>89</v>
+      <c r="B14" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="10" t="n">
+      <c r="A15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <v>41065</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="E15" s="11" t="n">
+      <c r="E15" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="10" t="n">
+      <c r="A16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <v>41078</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="12" t="n">
         <v>18</v>
       </c>
       <c r="D16" s="0" t="n">
         <f aca="false">C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="11" t="n">
+      <c r="E16" s="12" t="n">
         <v>250</v>
       </c>
-      <c r="F16" s="11" t="n">
+      <c r="F16" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="8" t="n">
         <f aca="false">(E16-E15)/F16*60</f>
         <v>125</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <v>41092</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="12" t="n">
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
         <f aca="false">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="11" t="n">
+      <c r="E17" s="12" t="n">
         <v>480</v>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F17" s="13" t="n">
         <v>135</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="8" t="n">
         <f aca="false">(E17-E16)/F17*60</f>
         <v>102.222222222222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18" s="10" t="n">
+      <c r="A18" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <v>41106</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="12" t="n">
         <v>6</v>
       </c>
       <c r="D18" s="0" t="n">
         <f aca="false">C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="11" t="n">
+      <c r="E18" s="12" t="n">
         <v>740</v>
       </c>
-      <c r="F18" s="12" t="n">
+      <c r="F18" s="13" t="n">
         <v>160</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="8" t="n">
         <f aca="false">(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="10" t="n">
+      <c r="A19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="11" t="n">
         <v>41120</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="12" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
         <f aca="false">C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="11" t="n">
+      <c r="E19" s="12" t="n">
         <v>1100</v>
       </c>
-      <c r="F19" s="12" t="n">
+      <c r="F19" s="13" t="n">
         <v>145</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="8" t="n">
         <f aca="false">(E19-E18)/F19*60</f>
         <v>148.965517241379</v>
       </c>
@@ -2809,12 +2838,12 @@
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="12.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -2822,30 +2851,30 @@
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>89</v>
+      <c r="B1" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>94</v>
+        <v>97</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>42795</v>
       </c>
       <c r="C2" s="0" t="n">
@@ -2857,9 +2886,9 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>42809</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -2875,16 +2904,16 @@
       <c r="F3" s="0" t="n">
         <v>1920</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="8" t="n">
         <f aca="false">(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B4" s="7" t="n">
         <v>42823</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -2899,23 +2928,23 @@
       <c r="F4" s="0" t="n">
         <v>2580</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="8" t="n">
         <v>15.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B5" s="7" t="n">
         <v>42837</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>42851</v>
       </c>
     </row>
@@ -2938,21 +2967,21 @@
   </sheetPr>
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="13" width="24.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="24.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -2960,7 +2989,7 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -2969,20 +2998,20 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3010,7 +3039,7 @@
       <c r="H2" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>42805</v>
       </c>
     </row>
@@ -3039,7 +3068,7 @@
       <c r="H3" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>42809</v>
       </c>
     </row>
@@ -3068,7 +3097,7 @@
       <c r="H4" s="0" t="n">
         <v>360</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <v>42809</v>
       </c>
     </row>
@@ -3097,7 +3126,7 @@
       <c r="H5" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <v>42808</v>
       </c>
     </row>
@@ -3126,7 +3155,7 @@
       <c r="H6" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <v>42805</v>
       </c>
     </row>
@@ -3155,7 +3184,7 @@
       <c r="H7" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <v>42806</v>
       </c>
     </row>
@@ -3184,7 +3213,7 @@
       <c r="H8" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <v>42808</v>
       </c>
     </row>
@@ -3213,90 +3242,90 @@
       <c r="H9" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <v>42810</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="18" t="s">
-        <v>105</v>
+      <c r="B13" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="18" t="s">
-        <v>106</v>
+      <c r="B14" s="19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="18" t="s">
-        <v>107</v>
+      <c r="B15" s="19" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18" t="s">
-        <v>108</v>
+      <c r="B16" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18"/>
+      <c r="B17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="14" t="s">
-        <v>109</v>
+      <c r="B18" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="14"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
-        <v>110</v>
+      <c r="B20" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
-        <v>115</v>
+      <c r="B25" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3333,7 +3362,7 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3342,25 +3371,25 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>50</v>
@@ -3383,7 +3412,7 @@
       <c r="H2" s="0" t="n">
         <v>270</v>
       </c>
-      <c r="I2" s="19" t="n">
+      <c r="I2" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3412,7 +3441,7 @@
       <c r="H3" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I3" s="19" t="n">
+      <c r="I3" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3441,13 +3470,13 @@
       <c r="H4" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="I4" s="19" t="n">
+      <c r="I4" s="20" t="n">
         <v>42819</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>55</v>
@@ -3470,7 +3499,7 @@
       <c r="H5" s="0" t="n">
         <v>480</v>
       </c>
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3499,7 +3528,7 @@
       <c r="H6" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I6" s="19" t="n">
+      <c r="I6" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3528,7 +3557,7 @@
       <c r="H7" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I7" s="19" t="n">
+      <c r="I7" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3557,7 +3586,7 @@
       <c r="H8" s="0" t="n">
         <v>300</v>
       </c>
-      <c r="I8" s="19" t="n">
+      <c r="I8" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3586,7 +3615,7 @@
       <c r="H9" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I9" s="19" t="n">
+      <c r="I9" s="20" t="n">
         <v>42823</v>
       </c>
     </row>
@@ -3605,95 +3634,95 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="18" t="s">
-        <v>105</v>
+      <c r="B15" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18" t="s">
-        <v>106</v>
+      <c r="B16" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18" t="s">
-        <v>107</v>
+      <c r="B17" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="18" t="s">
-        <v>108</v>
+      <c r="B18" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="14" t="s">
-        <v>109</v>
+      <c r="B20" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14"/>
+      <c r="B21" s="15"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14" t="s">
-        <v>110</v>
+      <c r="B22" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="14" t="s">
-        <v>115</v>
+      <c r="B26" s="15" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="20" t="s">
-        <v>124</v>
+      <c r="C27" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3759,7 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -3739,20 +3768,20 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3780,7 +3809,7 @@
       <c r="H2" s="0" t="n">
         <v>540</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <v>42837</v>
       </c>
     </row>
@@ -3809,7 +3838,7 @@
       <c r="H3" s="0" t="n">
         <v>240</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <v>42837</v>
       </c>
     </row>
@@ -3818,7 +3847,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>15</v>
@@ -3838,7 +3867,7 @@
       <c r="H4" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I4" s="21" t="n">
+      <c r="I4" s="20" t="n">
         <v>42837</v>
       </c>
     </row>
@@ -3867,7 +3896,7 @@
       <c r="H5" s="0" t="n">
         <v>180</v>
       </c>
-      <c r="I5" s="21" t="n">
+      <c r="I5" s="20" t="n">
         <v>42837</v>
       </c>
     </row>
@@ -3882,7 +3911,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>80</v>
@@ -3902,7 +3931,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>70</v>
@@ -3922,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>70</v>
@@ -3942,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>80</v>
@@ -3952,88 +3981,88 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="18" t="s">
-        <v>105</v>
+      <c r="B16" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="18" t="s">
-        <v>106</v>
+      <c r="B17" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="18" t="s">
-        <v>107</v>
+      <c r="B18" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="18" t="s">
-        <v>108</v>
+      <c r="B19" s="19" t="s">
+        <v>112</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="14" t="s">
-        <v>109</v>
+      <c r="B21" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="14" t="s">
-        <v>110</v>
+      <c r="B23" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="15" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="14" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4083,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -4069,7 +4098,7 @@
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -4078,20 +4107,20 @@
       <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="15" t="s">
+      <c r="E1" s="16" t="s">
         <v>104</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,10 +4147,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -4129,10 +4158,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -4140,18 +4169,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>135</v>
+        <v>85</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>15</v>
@@ -4183,7 +4212,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="13" width="49.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="49.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
   </cols>
   <sheetData>
@@ -4194,52 +4223,52 @@
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" s="23" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
+      <c r="C1" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" s="23" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
+      <c r="C2" s="23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" s="23" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>139</v>
+      <c r="C4" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="25" t="s">
         <v>142</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4249,8 +4278,8 @@
       <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>143</v>
+      <c r="C6" s="24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4260,96 +4289,96 @@
       <c r="B7" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" s="23" customFormat="true" ht="110.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
+      <c r="C7" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" s="22" customFormat="true" ht="110.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" s="23" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="23" t="s">
+      <c r="C8" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" s="22" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" s="23" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
+      <c r="C9" s="23" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" s="22" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>147</v>
+      <c r="C10" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>148</v>
+      <c r="C11" s="24" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="25" t="s">
         <v>151</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>152</v>
+        <v>135</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C14" s="25" t="s">
         <v>155</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="25" t="s">
         <v>158</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,8 +4388,8 @@
       <c r="B16" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>159</v>
+      <c r="C16" s="24" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4370,29 +4399,29 @@
       <c r="B17" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>160</v>
+      <c r="C17" s="24" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4403,7 +4432,7 @@
       <c r="B20" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4414,29 +4443,29 @@
       <c r="B21" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" s="23" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="s">
+    <row r="22" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" s="23" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="s">
+    <row r="23" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4447,7 +4476,7 @@
       <c r="B24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4458,7 +4487,7 @@
       <c r="B25" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4469,7 +4498,7 @@
       <c r="B26" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4480,7 +4509,7 @@
       <c r="B27" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4491,7 +4520,7 @@
       <c r="B28" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4502,7 +4531,7 @@
       <c r="B29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4513,7 +4542,7 @@
       <c r="B30" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4524,7 +4553,7 @@
       <c r="B31" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4535,7 +4564,7 @@
       <c r="B32" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4546,7 +4575,7 @@
       <c r="B33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4557,7 +4586,7 @@
       <c r="B34" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4568,29 +4597,29 @@
       <c r="B35" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="C35" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" s="23" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="23" t="s">
+    <row r="36" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" s="23" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="23" t="s">
+    <row r="37" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="23" t="s">
         <v>191</v>
       </c>
     </row>
@@ -4601,7 +4630,7 @@
       <c r="B38" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="24" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4612,18 +4641,18 @@
       <c r="B39" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C39" s="24" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4634,7 +4663,7 @@
       <c r="B41" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="24" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4645,7 +4674,7 @@
       <c r="B42" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="24" t="s">
         <v>203</v>
       </c>
     </row>
@@ -4656,7 +4685,7 @@
       <c r="B43" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="24" t="s">
         <v>204</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF318E-A348-45E8-BB17-AB07E82221D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
+    <sheet name="Stories" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,670 +42,650 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="205">
-  <si>
-    <t xml:space="preserve">Initials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KandasamyP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SmitaRath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pinak08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sundararaman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sanirudh1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GitHub Repository:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates before current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Less then 150 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct gender for role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique IDs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent deaths</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage after 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male last names</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique name and birth date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce before death</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order siblings by age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List deceased</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living married</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth before death of parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List living single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List multiple births</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique first names in families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List large age differences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remaining Stories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code Velocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Act Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smita Rath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinak Pathak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep doing:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarifying doubts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following documents and Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collaborating work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major changes at end</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last day development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Redundancy in code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daily meeting and Discussion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Following documents and instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct commit on developmet or direct upload as file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List Orphans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Not Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avoid last day development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents not too old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No marriages to descendantsPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Story Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage before divorce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No bigamy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings spacing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique families by spouses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corresponding entries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include individual ages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List recent survivors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List upcoming birthdays</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include input line numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include partial dates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="205">
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>KP</t>
+  </si>
+  <si>
+    <t>Kandasamy</t>
+  </si>
+  <si>
+    <t>Parthasarathy</t>
+  </si>
+  <si>
+    <t>kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t>KandasamyP</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Smita</t>
+  </si>
+  <si>
+    <t>Rath</t>
+  </si>
+  <si>
+    <t>srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t>SmitaRath</t>
+  </si>
+  <si>
+    <t>PP</t>
+  </si>
+  <si>
+    <t>Pinak</t>
+  </si>
+  <si>
+    <t>Pathak</t>
+  </si>
+  <si>
+    <t>ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t>pinak08</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Anirudh</t>
+  </si>
+  <si>
+    <t>Sundararaman</t>
+  </si>
+  <si>
+    <t>asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t>sanirudh1998</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthday</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>No marriages to descendants</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Remaining Stories</t>
+  </si>
+  <si>
+    <t>Story Velocity</t>
+  </si>
+  <si>
+    <t>LOC</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Code Velocity</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Est Size</t>
+  </si>
+  <si>
+    <t>Est Time</t>
+  </si>
+  <si>
+    <t>Act Size</t>
+  </si>
+  <si>
+    <t>Act Time</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t>Smita Rath</t>
+  </si>
+  <si>
+    <t>Pinak Pathak</t>
+  </si>
+  <si>
+    <t>Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t>Clarifying doubts</t>
+  </si>
+  <si>
+    <t>Following documents and Instructions</t>
+  </si>
+  <si>
+    <t>Collaborating work</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>Major changes at end</t>
+  </si>
+  <si>
+    <t>last day development</t>
+  </si>
+  <si>
+    <t>Redundancy in code</t>
+  </si>
+  <si>
+    <t>Time management</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>Daily meeting and Discussion</t>
+  </si>
+  <si>
+    <t>Following documents and instructions</t>
+  </si>
+  <si>
+    <t>Direct commit on developmet or direct upload as file</t>
+  </si>
+  <si>
+    <t>List Orphans</t>
+  </si>
+  <si>
+    <t>Not Done</t>
+  </si>
+  <si>
+    <t>Avoid last day development</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>No marriages to descendantsPP</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="D/M"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="168" formatCode="@"/>
-    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="d/m"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -703,22 +697,9 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -727,7 +708,6 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -752,7 +732,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -760,145 +740,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -957,17 +856,37 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -975,12 +894,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -990,45 +906,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>06/06/2016</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19/06/2016</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>03/07/2016</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17/07/2016</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31/07/2016</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1051,14 +977,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBB7-45A5-9915-ADFFD0F0CCD5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1067,17 +1003,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="95366701"/>
         <c:axId val="29231846"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="95366701"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="DD/MM/YYYY" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1094,21 +1031,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="29231846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="29231846"/>
         <c:scaling>
@@ -1143,13 +1081,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95366701"/>
@@ -1158,7 +1097,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1167,24 +1106,34 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1192,12 +1141,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1207,45 +1153,55 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$B$2:$B$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>d/m</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/3</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16/3</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30/3</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13/4</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/4</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1262,20 +1218,24 @@
                 <c:pt idx="2">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E75-4B51-A9DE-38CE111ABE3A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1284,17 +1244,18 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="69734564"/>
         <c:axId val="90044933"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="69734564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="D/M" sourceLinked="1"/>
+        <c:numFmt formatCode="d/m" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1311,21 +1272,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="90044933"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="90044933"/>
         <c:scaling>
@@ -1360,13 +1322,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="69734564"/>
@@ -1375,7 +1338,7 @@
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -1384,20 +1347,26 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1411,14 +1380,20 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="948960" y="3562920"/>
-        <a:ext cx="4930200" cy="2612160"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1441,9 +1416,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1460,11 +1441,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1484,7 +1465,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1492,15 +1474,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>= # team members * 4 sprints * </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1511,15 +1493,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>2 stories per sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1540,9 +1522,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1559,11 +1547,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1583,7 +1571,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1591,15 +1580,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>lines of code per hour is calcuated by Excel</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1620,9 +1609,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1639,11 +1634,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1663,7 +1658,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1671,15 +1667,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Velocity of completing user stories (calculated)</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1700,9 +1696,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1719,11 +1721,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1743,7 +1745,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1751,15 +1754,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>Total </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1770,15 +1773,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>LOC</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1799,9 +1802,15 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1818,11 +1827,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1842,7 +1851,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1850,15 +1860,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>How long to implement the user stories in this sprint</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1879,9 +1889,15 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>140400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1898,11 +1914,11 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
+            <a:srgbClr val="4A7EBB"/>
           </a:solidFill>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+          <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1922,7 +1938,8 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000"/>
+        <a:bodyPr lIns="90000" tIns="45000" rIns="90000" bIns="45000"/>
+        <a:lstStyle/>
         <a:p>
           <a:pPr>
             <a:lnSpc>
@@ -1930,15 +1947,15 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+            <a:rPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
-                <a:srgbClr val="ffffff"/>
+                <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:t>When we expect to complete all user stories</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-IN" sz="1200" spc="-1" strike="noStrike">
+          <a:endParaRPr lang="en-IN" sz="1200" b="0" strike="noStrike" spc="-1">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1950,7 +1967,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1964,14 +1981,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 1"/>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1835640" y="1458360"/>
-        <a:ext cx="6180840" cy="2611440"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1984,182 +2007,466 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D8" s="1" t="s">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E8:H8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="kparthas@stevens.edu"/>
-    <hyperlink ref="D3" r:id="rId2" display="srath2@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId3" display="ppathak2@stevens.edu"/>
-    <hyperlink ref="D5" r:id="rId4" display="asundar1@stevens.edu"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2175,8 +2482,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2192,8 +2499,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2209,8 +2516,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -2226,8 +2533,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -2243,8 +2550,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -2260,8 +2567,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2277,8 +2584,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -2294,708 +2601,724 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>50</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>2</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>3</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="11"/>
+    <col min="1" max="1" width="10.90625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="11">
         <v>41065</v>
       </c>
-      <c r="C15" s="12" t="n">
+      <c r="C15" s="12">
         <v>24</v>
       </c>
-      <c r="E15" s="12" t="n">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="11">
         <v>41078</v>
       </c>
-      <c r="C16" s="12" t="n">
+      <c r="C16" s="12">
         <v>18</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">C15-C16</f>
+      <c r="D16">
+        <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12" t="n">
+      <c r="E16" s="12">
         <v>250</v>
       </c>
-      <c r="F16" s="12" t="n">
+      <c r="F16" s="12">
         <v>120</v>
       </c>
-      <c r="G16" s="8" t="n">
-        <f aca="false">(E16-E15)/F16*60</f>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="8">
+        <f>(E16-E15)/F16*60</f>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="11">
         <v>41092</v>
       </c>
-      <c r="C17" s="12" t="n">
+      <c r="C17" s="12">
         <v>12</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">C16-C17</f>
+      <c r="D17">
+        <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12" t="n">
+      <c r="E17" s="12">
         <v>480</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="13">
         <v>135</v>
       </c>
-      <c r="G17" s="8" t="n">
-        <f aca="false">(E17-E16)/F17*60</f>
-        <v>102.222222222222</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="8">
+        <f>(E17-E16)/F17*60</f>
+        <v>102.22222222222223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="11">
         <v>41106</v>
       </c>
-      <c r="C18" s="12" t="n">
+      <c r="C18" s="12">
         <v>6</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">C17-C18</f>
+      <c r="D18">
+        <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="n">
+      <c r="E18" s="12">
         <v>740</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="13">
         <v>160</v>
       </c>
-      <c r="G18" s="8" t="n">
-        <f aca="false">(E18-E17)/F18*60</f>
+      <c r="G18" s="8">
+        <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="11">
         <v>41120</v>
       </c>
-      <c r="C19" s="12" t="n">
+      <c r="C19" s="12">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">C18-C19</f>
+      <c r="D19">
+        <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="12" t="n">
+      <c r="E19" s="12">
         <v>1100</v>
       </c>
-      <c r="F19" s="13" t="n">
+      <c r="F19" s="13">
         <v>145</v>
       </c>
-      <c r="G19" s="8" t="n">
-        <f aca="false">(E19-E18)/F19*60</f>
-        <v>148.965517241379</v>
+      <c r="G19" s="8">
+        <f>(E19-E18)/F19*60</f>
+        <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="8" customWidth="1"/>
+    <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>42795</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>42809</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">C2-C3</f>
+      <c r="D3">
+        <f>C2-C3</f>
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>430</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">(E3-E2)/F3*60</f>
+      <c r="G3" s="8">
+        <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>42823</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>685</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>2580</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="8">
         <v>15.9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="7">
         <v>42851</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="24.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="7" customWidth="1"/>
+    <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3014,7 +3337,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -3027,23 +3350,23 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>70</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>42805</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -3056,23 +3379,23 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>42809</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -3085,23 +3408,23 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>50</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>70</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>42809</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>39</v>
       </c>
@@ -3114,23 +3437,23 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>40</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="7">
         <v>42808</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -3143,23 +3466,23 @@
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>720</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="7">
         <v>42805</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -3172,23 +3495,23 @@
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>80</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>720</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="7">
         <v>42806</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -3201,23 +3524,23 @@
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>580</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>45</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>42808</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>47</v>
       </c>
@@ -3230,145 +3553,137 @@
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>580</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="7">
         <v>42810</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3387,11 +3702,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -3400,27 +3715,27 @@
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>50</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>360</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>80</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>270</v>
       </c>
-      <c r="I2" s="20" t="n">
+      <c r="I2" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>52</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -3429,27 +3744,27 @@
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>360</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>80</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="20" t="n">
+      <c r="I3" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3458,27 +3773,27 @@
       <c r="D4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>130</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>580</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>480</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="20">
         <v>42819</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3487,158 +3802,158 @@
       <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>580</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>110</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>480</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>580</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>74</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>300</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>50</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>360</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>71</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>240</v>
       </c>
-      <c r="I7" s="20" t="n">
+      <c r="I7" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>360</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8">
         <v>80</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>360</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>70</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>240</v>
       </c>
-      <c r="I9" s="20" t="n">
+      <c r="I9" s="20">
         <v>42823</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="0" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10">
         <v>580</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>3180</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10">
         <v>685</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10">
         <v>2580</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>109</v>
       </c>
@@ -3646,7 +3961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>110</v>
       </c>
@@ -3654,7 +3969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>111</v>
       </c>
@@ -3662,7 +3977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>112</v>
       </c>
@@ -3670,102 +3985,94 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="14"/>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="C27" s="21" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -3784,208 +4091,226 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>70</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>240</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>143</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2">
         <v>540</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="7">
         <v>42837</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>70</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>240</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>50</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>42837</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>70</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>240</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>50</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>180</v>
       </c>
-      <c r="I4" s="20" t="n">
+      <c r="I4" s="20">
         <v>42837</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>70</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>240</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="20" t="n">
+      <c r="I5" s="20">
         <v>42837</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>80</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>240</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="G6">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>240</v>
+      </c>
+      <c r="I6" s="25">
+        <v>42830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>70</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>240</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="G7">
+        <v>64</v>
+      </c>
+      <c r="H7">
+        <v>180</v>
+      </c>
+      <c r="I7" s="25">
+        <v>42837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>70</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>240</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>80</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>240</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
         <v>109</v>
       </c>
@@ -3993,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
         <v>110</v>
       </c>
@@ -4001,7 +4326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
         <v>111</v>
       </c>
@@ -4009,7 +4334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
         <v>112</v>
       </c>
@@ -4017,94 +4342,86 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="19"/>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="14"/>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="14"/>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -4123,111 +4440,103 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>135</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="118" zoomScaleNormal="118" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="49.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="14" customWidth="1"/>
+    <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>32</v>
       </c>
@@ -4238,7 +4547,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>35</v>
       </c>
@@ -4249,7 +4558,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>37</v>
       </c>
@@ -4260,40 +4569,40 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>142</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" s="22" customFormat="true" ht="110.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="22" t="s">
         <v>39</v>
       </c>
@@ -4304,7 +4613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" s="22" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="22" t="s">
         <v>125</v>
       </c>
@@ -4315,7 +4624,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" s="22" customFormat="true" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
@@ -4326,128 +4635,128 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>151</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>135</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="141.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>154</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>155</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>158</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>54</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" t="s">
         <v>86</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>164</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" t="s">
         <v>165</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>168</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -4458,7 +4767,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -4469,139 +4778,139 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>173</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" t="s">
         <v>174</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" t="s">
         <v>178</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" t="s">
         <v>181</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>76</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" t="s">
         <v>78</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" s="22" customFormat="true" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="22" t="s">
         <v>45</v>
       </c>
@@ -4612,7 +4921,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" s="22" customFormat="true" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="22" t="s">
         <v>47</v>
       </c>
@@ -4623,66 +4932,66 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" t="s">
         <v>193</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" t="s">
         <v>195</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" t="s">
         <v>133</v>
       </c>
       <c r="C40" s="24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" t="s">
         <v>199</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" t="s">
         <v>202</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="24" t="s">
@@ -4690,12 +4999,7 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF318E-A348-45E8-BB17-AB07E82221D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEF937-7E08-4486-91AB-C688860648ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="205">
   <si>
     <t>Initials</t>
   </si>
@@ -744,11 +744,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -790,7 +787,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2310,29 +2309,29 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.90625" customWidth="1"/>
-    <col min="2" max="2" width="10.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="5" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2346,7 +2345,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
@@ -2363,7 +2362,7 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -2380,7 +2379,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -2397,7 +2396,7 @@
       <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
@@ -2405,15 +2404,15 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2434,175 +2433,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" customWidth="1"/>
-    <col min="2" max="2" width="7.6328125" customWidth="1"/>
-    <col min="3" max="3" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -2611,7 +2610,7 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" t="s">
@@ -2619,7 +2618,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -2628,7 +2627,7 @@
       <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E11" t="s">
@@ -2636,7 +2635,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
       <c r="B12" t="s">
@@ -2645,7 +2644,7 @@
       <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
@@ -2653,7 +2652,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -2662,7 +2661,7 @@
       <c r="C13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
@@ -2670,7 +2669,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" t="s">
@@ -2687,7 +2686,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -2704,7 +2703,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
       <c r="B16" t="s">
@@ -2721,7 +2720,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -2738,7 +2737,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>3</v>
       </c>
       <c r="B18" t="s">
@@ -2755,7 +2754,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" t="s">
@@ -2772,7 +2771,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>3</v>
       </c>
       <c r="B20" t="s">
@@ -2908,7 +2907,7 @@
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="D28" t="s">
@@ -2922,7 +2921,7 @@
       <c r="B29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>86</v>
       </c>
       <c r="D29" t="s">
@@ -2939,7 +2938,7 @@
       <c r="C30" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2953,7 +2952,7 @@
       <c r="C31" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2971,182 +2970,182 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>41065</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>24</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>41078</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>250</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>120</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>41092</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>12</v>
       </c>
       <c r="D17">
         <f>C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>480</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <v>135</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="7">
         <f>(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>41106</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>6</v>
       </c>
       <c r="D18">
         <f>C17-C18</f>
         <v>6</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>740</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>160</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <f>(E18-E17)/F18*60</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>41120</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>0</v>
       </c>
       <c r="D19">
         <f>C18-C19</f>
         <v>6</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>1100</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>145</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <f>(E19-E18)/F19*60</f>
         <v>148.9655172413793</v>
       </c>
@@ -3162,42 +3161,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="7.08984375" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="6.875" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3205,7 +3204,7 @@
       <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>42795</v>
       </c>
       <c r="C2">
@@ -3219,7 +3218,7 @@
       <c r="A3" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>42809</v>
       </c>
       <c r="C3">
@@ -3235,7 +3234,7 @@
       <c r="F3">
         <v>1920</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <f>(E3-E2)/F3*60</f>
         <v>13.4375</v>
       </c>
@@ -3244,7 +3243,7 @@
       <c r="A4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>42823</v>
       </c>
       <c r="C4">
@@ -3259,7 +3258,7 @@
       <c r="F4">
         <v>2580</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>15.9</v>
       </c>
     </row>
@@ -3267,7 +3266,7 @@
       <c r="A5" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -3275,7 +3274,7 @@
       <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>42851</v>
       </c>
     </row>
@@ -3294,60 +3293,60 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3362,21 +3361,21 @@
       <c r="H2">
         <v>180</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>42805</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3391,21 +3390,21 @@
       <c r="H3">
         <v>300</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>42809</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3420,21 +3419,21 @@
       <c r="H4">
         <v>360</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>42809</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3449,21 +3448,21 @@
       <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>42808</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3478,21 +3477,21 @@
       <c r="H6">
         <v>180</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>42805</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3507,21 +3506,21 @@
       <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>42806</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3536,21 +3535,21 @@
       <c r="H8">
         <v>240</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>42808</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3565,48 +3564,48 @@
       <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>42810</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="15"/>
+      <c r="B19" s="14"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C20" t="s">
@@ -3629,7 +3628,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C25" t="s">
@@ -3665,40 +3664,40 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.75" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3709,10 +3708,10 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -3727,7 +3726,7 @@
       <c r="H2">
         <v>270</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3738,10 +3737,10 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -3756,7 +3755,7 @@
       <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3767,10 +3766,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E4">
@@ -3785,7 +3784,7 @@
       <c r="H4">
         <v>480</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="19">
         <v>42819</v>
       </c>
     </row>
@@ -3796,10 +3795,10 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E5">
@@ -3814,7 +3813,7 @@
       <c r="H5">
         <v>480</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3828,7 +3827,7 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E6">
@@ -3843,7 +3842,7 @@
       <c r="H6">
         <v>300</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3857,7 +3856,7 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7">
@@ -3872,7 +3871,7 @@
       <c r="H7">
         <v>240</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3886,7 +3885,7 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8">
@@ -3901,7 +3900,7 @@
       <c r="H8">
         <v>300</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3915,7 +3914,7 @@
       <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9">
@@ -3930,7 +3929,7 @@
       <c r="H9">
         <v>240</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="19">
         <v>42823</v>
       </c>
     </row>
@@ -3949,56 +3948,56 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="19"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="15"/>
+      <c r="B21" s="14"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C22" t="s">
@@ -4006,27 +4005,27 @@
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
-      <c r="C27" s="21" t="s">
+    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C27" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4051,43 +4050,43 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4101,7 +4100,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2">
@@ -4116,7 +4115,7 @@
       <c r="H2">
         <v>540</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -4130,7 +4129,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E3">
@@ -4145,7 +4144,7 @@
       <c r="H3">
         <v>240</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -4174,7 +4173,7 @@
       <c r="H4">
         <v>180</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -4203,7 +4202,7 @@
       <c r="H5">
         <v>180</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -4232,7 +4231,7 @@
       <c r="H6">
         <v>240</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="6">
         <v>42830</v>
       </c>
     </row>
@@ -4261,7 +4260,7 @@
       <c r="H7">
         <v>180</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="6">
         <v>42837</v>
       </c>
     </row>
@@ -4284,6 +4283,7 @@
       <c r="F8">
         <v>240</v>
       </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -4304,58 +4304,59 @@
       <c r="F9">
         <v>240</v>
       </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="19"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="15"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C23" t="s">
@@ -4363,19 +4364,19 @@
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
       <c r="C26" t="s">
         <v>131</v>
       </c>
@@ -4386,7 +4387,7 @@
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4400,43 +4401,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4450,6 +4451,15 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>240</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4461,6 +4471,15 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3">
+        <v>70</v>
+      </c>
+      <c r="F3">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4469,8 +4488,11 @@
       <c r="B4" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -4480,27 +4502,36 @@
       <c r="B5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4517,484 +4548,484 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:3" s="21" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="22" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:3" s="21" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:3" s="21" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
       <c r="B12" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>158</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>165</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="22" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>177</v>
       </c>
       <c r="B27" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>180</v>
       </c>
       <c r="B28" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
       <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
       <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+      <c r="A36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>192</v>
       </c>
       <c r="B38" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>132</v>
       </c>
       <c r="B40" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="23" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>198</v>
       </c>
       <c r="B41" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="23" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>201</v>
       </c>
       <c r="B42" t="s">
         <v>202</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="23" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>204</v>
       </c>
     </row>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEF937-7E08-4486-91AB-C688860648ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7676E-E619-4DE4-8E32-2B9737B17320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -4049,14 +4049,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
@@ -4401,7 +4401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -4544,7 +4544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masters Classes Course\spring2021\SSW-555A\SprintProject\AgileMethodologiesFinalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7676E-E619-4DE4-8E32-2B9737B17320}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F961CA8-E808-448E-90C3-3EEB02871A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2309,12 +2309,12 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="5" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="7.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" customWidth="1"/>
+    <col min="4" max="5" width="20.453125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2437,13 +2437,13 @@
       <selection activeCell="E21" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="6.453125" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
     <col min="6" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2970,14 +2970,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="7" customWidth="1"/>
     <col min="7" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3165,15 +3165,15 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="22.875" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="6.875" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.90625" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" customWidth="1"/>
+    <col min="6" max="6" width="6.90625" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="7" customWidth="1"/>
     <col min="8" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3293,17 +3293,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="13" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" style="13" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6" customWidth="1"/>
     <col min="10" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3664,11 +3664,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="33.75" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.453125" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4024,7 +4024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" ht="37.799999999999997" x14ac:dyDescent="0.2">
       <c r="C27" s="20" t="s">
         <v>128</v>
       </c>
@@ -4049,15 +4049,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="28.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.90625" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>80</v>
@@ -4246,7 +4246,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>70</v>
@@ -4401,14 +4401,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="3" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4494,6 +4494,12 @@
       <c r="D4" t="s">
         <v>130</v>
       </c>
+      <c r="E4">
+        <v>70</v>
+      </c>
+      <c r="F4">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4507,6 +4513,12 @@
       </c>
       <c r="D5" t="s">
         <v>130</v>
+      </c>
+      <c r="E5">
+        <v>60</v>
+      </c>
+      <c r="F5">
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -4548,11 +4560,11 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="13" customWidth="1"/>
     <col min="4" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4567,7 +4579,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>32</v>
       </c>
@@ -4578,7 +4590,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>35</v>
       </c>
@@ -4589,7 +4601,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>141</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4622,7 +4634,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -4633,7 +4645,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="21" customFormat="1" ht="110.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="21" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>125</v>
       </c>
@@ -4655,7 +4667,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="21" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>49</v>
       </c>
@@ -4666,7 +4678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -4677,7 +4689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>150</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -4699,7 +4711,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="141.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="105" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>154</v>
       </c>
@@ -4710,7 +4722,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -4732,7 +4744,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -4743,7 +4755,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>85</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>164</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -4787,7 +4799,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>41</v>
       </c>
@@ -4798,7 +4810,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>43</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>56</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -4831,7 +4843,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>79</v>
       </c>
@@ -4842,7 +4854,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="195" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -4853,7 +4865,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>180</v>
       </c>
@@ -4864,7 +4876,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4875,7 +4887,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4886,7 +4898,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -4897,7 +4909,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -4908,7 +4920,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -4919,7 +4931,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -4930,7 +4942,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -4941,7 +4953,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="21" customFormat="1" ht="63" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>45</v>
       </c>
@@ -4952,7 +4964,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="21" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>47</v>
       </c>
@@ -4963,7 +4975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>192</v>
       </c>
@@ -4974,7 +4986,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -4985,7 +4997,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -4996,7 +5008,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>198</v>
       </c>
@@ -5007,7 +5019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>201</v>
       </c>
@@ -5018,7 +5030,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>58</v>
       </c>

--- a/Team01Report.xlsx
+++ b/Team01Report.xlsx
@@ -1,39 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr date1904="1" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanda\IdeaProjects\AgileMethodologies_FinalProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F961CA8-E808-448E-90C3-3EEB02871A51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" r:id="rId1"/>
-    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
-    <sheet name="Burndown README" sheetId="3" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="8" r:id="rId8"/>
-    <sheet name="Stories" sheetId="9" r:id="rId9"/>
+    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Burndown README" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Burndown" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Sprint1" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Sprint2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sprint3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Sprint4" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Stories" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -44,648 +30,668 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="205">
   <si>
-    <t>Initials</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Last</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>KP</t>
-  </si>
-  <si>
-    <t>Kandasamy</t>
-  </si>
-  <si>
-    <t>Parthasarathy</t>
-  </si>
-  <si>
-    <t>kparthas@stevens.edu</t>
-  </si>
-  <si>
-    <t>KandasamyP</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Smita</t>
-  </si>
-  <si>
-    <t>Rath</t>
-  </si>
-  <si>
-    <t>srath2@stevens.edu</t>
-  </si>
-  <si>
-    <t>SmitaRath</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>Pinak</t>
-  </si>
-  <si>
-    <t>Pathak</t>
-  </si>
-  <si>
-    <t>ppathak2@stevens.edu</t>
-  </si>
-  <si>
-    <t>pinak08</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Anirudh</t>
-  </si>
-  <si>
-    <t>Sundararaman</t>
-  </si>
-  <si>
-    <t>asundar1@stevens.edu</t>
-  </si>
-  <si>
-    <t>sanirudh1998</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>List upcoming birthday</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Remaining Stories</t>
-  </si>
-  <si>
-    <t>Story Velocity</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Code Velocity</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>Est Size</t>
-  </si>
-  <si>
-    <t>Est Time</t>
-  </si>
-  <si>
-    <t>Act Size</t>
-  </si>
-  <si>
-    <t>Act Time</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Kandasamy Parthasarathy</t>
-  </si>
-  <si>
-    <t>Smita Rath</t>
-  </si>
-  <si>
-    <t>Pinak Pathak</t>
-  </si>
-  <si>
-    <t>Anirudh Sundararamanan</t>
-  </si>
-  <si>
-    <t>Review Results</t>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-  </si>
-  <si>
-    <t>Daily meeting and discussion</t>
-  </si>
-  <si>
-    <t>Clarifying doubts</t>
-  </si>
-  <si>
-    <t>Following documents and Instructions</t>
-  </si>
-  <si>
-    <t>Collaborating work</t>
-  </si>
-  <si>
-    <t>Avoid:</t>
-  </si>
-  <si>
-    <t>Major changes at end</t>
-  </si>
-  <si>
-    <t>last day development</t>
-  </si>
-  <si>
-    <t>Redundancy in code</t>
-  </si>
-  <si>
-    <t>Time management</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>Daily meeting and Discussion</t>
-  </si>
-  <si>
-    <t>Following documents and instructions</t>
-  </si>
-  <si>
-    <t>Direct commit on developmet or direct upload as file</t>
-  </si>
-  <si>
-    <t>List Orphans</t>
-  </si>
-  <si>
-    <t>Not Done</t>
-  </si>
-  <si>
-    <t>Avoid last day development</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>No marriages to descendantsPP</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t xml:space="preserve">Initials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandasamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parthasarathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kparthas@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KandasamyP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srath2@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SmitaRath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ppathak2@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pinak08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundararaman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asundar1@stevens.edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sanirudh1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GitHub Repository:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/SmitaRath/AgileMethodologies_FinalProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates before current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Less then 150 years old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct gender for role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique IDs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent deaths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage after 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male last names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique name and birth date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divorce before death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order siblings by age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List deceased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List orphans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List living married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth before death of parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List upcoming birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List living single</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List multiple births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique first names in families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List large age differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No marriages to descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents not too old</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Stories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Act Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kandasamy Parthasarathy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smita Rath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinak Pathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anirudh Sundararamanan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep doing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily meeting and discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarifying doubts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following documents and Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collaborating work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major changes at end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last day development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundancy in code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily meeting and Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following documents and instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct commit on developmet or direct upload as file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List Orphans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid last day development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No marriages to descendantsPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage before divorce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No bigamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings spacing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parents should not marry any of their descendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique families by spouses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corresponding entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include individual ages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List recent survivors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List upcoming birthdays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include input line numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include partial dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d/m"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="D/M"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="168" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -696,10 +702,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
@@ -708,6 +722,7 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -732,7 +747,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -740,63 +755,141 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  <cellStyleXfs count="21">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="24">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -855,37 +948,17 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/draw